--- a/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP Problem 2.xlsx
+++ b/Results/TinyMPC CDC benchmarks/Safety Filter/Safety Filter STM32 OSQP Problem 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elakhyanedumaran/Documents/Tinympc/TinyMPC IROS24 benchmarks/Safety Filter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elakhyanedumaran/Documents/Tinympc/Copy_of_TinyMPC CDC benchmarks/Safety Filter 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF69DF05-8D03-D049-A54A-6ED80E3E14A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C0091-70F7-5B48-9673-D55A97AA9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states (horizon=10)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>iterations</t>
   </si>
@@ -125,6 +125,9 @@
     <t>n horizon = 4</t>
   </si>
   <si>
+    <t>n horizon = 8</t>
+  </si>
+  <si>
     <t>n horizon = 10</t>
   </si>
   <si>
@@ -137,13 +140,25 @@
     <t>n horizon = 30</t>
   </si>
   <si>
+    <t>n horizon = 32</t>
+  </si>
+  <si>
     <t>n horizon = 40</t>
   </si>
   <si>
     <t>n horizon = 50</t>
   </si>
   <si>
+    <t>n horizon = 64</t>
+  </si>
+  <si>
+    <t>n horizon = 100</t>
+  </si>
+  <si>
     <t>Sketch uses 217440 bytes (20%) of program storage space. Maximum is 1048576 bytes.</t>
+  </si>
+  <si>
+    <t>Sketch uses 225928 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
   </si>
   <si>
     <t>Sketch uses 230168 bytes (21%) of program storage space. Maximum is 1048576 bytes.</t>
@@ -158,6 +173,9 @@
     <t>Global variables use 28116 bytes (21%) of dynamic memory, leaving 102956 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
+    <t>Global variables use 44996 bytes (34%) of dynamic memory, leaving 86076 bytes for local variables. Maximum is 131072 bytes.</t>
+  </si>
+  <si>
     <t>Global variables use 53436 bytes (40%) of dynamic memory, leaving 77636 bytes for local variables. Maximum is 131072 bytes.</t>
   </si>
   <si>
@@ -167,13 +185,25 @@
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 8304 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 16744 bytes</t>
+  </si>
+  <si>
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 50504 bytes</t>
   </si>
   <si>
     <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 92704 bytes</t>
   </si>
   <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 151784 bytes</t>
+  </si>
+  <si>
+    <t>/Users/elakhyanedumaran/Library/Arduino15/packages/STMicroelectronics/tools/xpack-arm-none-eabi-gcc/12.2.1-1.2/bin/../lib/gcc/arm-none-eabi/12.2.1/../../../../arm-none-eabi/bin/ld: region `RAM' overflowed by 303704 bytes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Size          : 212.80 KB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size          : 221.09 KB </t>
   </si>
   <si>
     <t>Size          : 225.23 KB</t>
@@ -287,8 +317,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,7 +545,7 @@
   <dimension ref="A1:AG194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -615,13 +645,13 @@
       <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>5</v>
+      <c r="A3">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>2203</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2">
@@ -630,7 +660,7 @@
       <c r="E3" s="2">
         <v>4382</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -639,7 +669,7 @@
       <c r="H3" s="2">
         <v>8067</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="2"/>
@@ -650,7 +680,7 @@
       <c r="N3" s="2">
         <v>15989</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="2"/>
@@ -659,13 +689,13 @@
       <c r="T3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,7 +706,7 @@
       <c r="B4" s="2">
         <v>1442</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2">
@@ -685,7 +715,7 @@
       <c r="E4" s="2">
         <v>2862</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
@@ -694,7 +724,7 @@
       <c r="H4" s="2">
         <v>5244</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -705,7 +735,7 @@
       <c r="N4" s="2">
         <v>10399</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="2"/>
@@ -714,13 +744,13 @@
       <c r="T4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -731,7 +761,7 @@
       <c r="B5" s="2">
         <v>1441</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2">
@@ -740,7 +770,7 @@
       <c r="E5" s="2">
         <v>2896</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="2">
@@ -749,7 +779,7 @@
       <c r="H5" s="2">
         <v>5222</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="2"/>
@@ -760,7 +790,7 @@
       <c r="N5" s="2">
         <v>11373</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="2"/>
@@ -769,13 +799,13 @@
       <c r="T5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7348,17 +7378,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7369,13 +7399,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:AG200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7403,8 +7433,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -7440,149 +7476,223 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>3108</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>10039</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>8028</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>7</v>
       </c>
       <c r="H3" s="2">
+        <v>10039</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
         <v>15989</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <v>16</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="2">
         <v>51703</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2279</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>6533</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>5195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
       </c>
       <c r="H4" s="2">
+        <v>6533</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
         <v>10399</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="2">
         <v>6</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="2">
         <v>17832</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>2566</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>6505</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>5175</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
       <c r="H5" s="2">
+        <v>6505</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
         <v>11373</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="2">
         <v>6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>17765</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7593,22 +7703,29 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>7126</v>
-      </c>
+        <v>5235</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>5</v>
       </c>
       <c r="H6" s="2">
+        <v>7126</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
         <v>11316</v>
       </c>
-      <c r="J6" s="2">
-        <v>15</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2">
         <v>47246</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7619,22 +7736,29 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>7106</v>
-      </c>
+        <v>5656</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="2">
+        <v>7106</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
         <v>11358</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>14</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43962</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7645,22 +7769,29 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>5644</v>
-      </c>
+        <v>4493</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>4</v>
       </c>
       <c r="H8" s="2">
+        <v>5644</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
         <v>8988</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M8" s="2">
         <v>14</v>
       </c>
-      <c r="K8" s="2">
+      <c r="N8" s="2">
         <v>43956</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -7671,22 +7802,29 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>5600</v>
-      </c>
+        <v>4493</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>4</v>
       </c>
       <c r="H9" s="2">
+        <v>5600</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
         <v>8917</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M9" s="2">
         <v>12</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>37381</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -7697,22 +7835,29 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>5595</v>
-      </c>
+        <v>4493</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>4</v>
       </c>
       <c r="H10" s="2">
+        <v>5595</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
         <v>8911</v>
       </c>
-      <c r="J10" s="2">
+      <c r="M10" s="2">
         <v>16</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>51482</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -7720,25 +7865,32 @@
         <v>2191</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>6536</v>
-      </c>
+        <v>4458</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>5</v>
       </c>
       <c r="H11" s="2">
+        <v>6536</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
         <v>11421</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M11" s="2">
         <v>19</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>61275</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -7746,25 +7898,32 @@
         <v>2191</v>
       </c>
       <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4457</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>62</v>
       </c>
-      <c r="E12" s="2">
+      <c r="H12" s="2">
         <v>89794</v>
       </c>
-      <c r="G12" s="2">
+      <c r="J12" s="2">
         <v>91</v>
       </c>
-      <c r="H12" s="2">
+      <c r="K12" s="2">
         <v>209801</v>
       </c>
-      <c r="J12" s="2">
+      <c r="M12" s="2">
         <v>24</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>77407</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -7772,25 +7931,32 @@
         <v>1973</v>
       </c>
       <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5206</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>79</v>
       </c>
-      <c r="E13" s="2">
+      <c r="H13" s="2">
         <v>114926</v>
       </c>
-      <c r="G13" s="2">
+      <c r="J13" s="2">
         <v>80</v>
       </c>
-      <c r="H13" s="2">
+      <c r="K13" s="2">
         <v>185092</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M13" s="2">
         <v>32</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N13" s="2">
         <v>103221</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -7798,25 +7964,32 @@
         <v>1958</v>
       </c>
       <c r="D14" s="2">
+        <v>132</v>
+      </c>
+      <c r="E14" s="2">
+        <v>152574</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>63</v>
       </c>
-      <c r="E14" s="2">
+      <c r="H14" s="2">
         <v>91479</v>
       </c>
-      <c r="G14" s="2">
+      <c r="J14" s="2">
         <v>67</v>
       </c>
-      <c r="H14" s="2">
+      <c r="K14" s="2">
         <v>154931</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M14" s="2">
         <v>217</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N14" s="2">
         <v>702243</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -7824,25 +7997,32 @@
         <v>1974</v>
       </c>
       <c r="D15" s="2">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2">
+        <v>148088</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>38</v>
       </c>
-      <c r="E15" s="2">
+      <c r="H15" s="2">
         <v>55197</v>
       </c>
-      <c r="G15" s="2">
+      <c r="J15" s="2">
         <v>39</v>
       </c>
-      <c r="H15" s="2">
+      <c r="K15" s="2">
         <v>90229</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M15" s="2">
         <v>180</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>582475</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -7850,25 +8030,32 @@
         <v>2554</v>
       </c>
       <c r="D16" s="2">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2">
+        <v>96066</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>21</v>
       </c>
-      <c r="E16" s="2">
+      <c r="H16" s="2">
         <v>30502</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J16" s="2">
         <v>22</v>
       </c>
-      <c r="H16" s="2">
+      <c r="K16" s="2">
         <v>50913</v>
       </c>
-      <c r="J16" s="2">
+      <c r="M16" s="2">
         <v>133</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N16" s="2">
         <v>429966</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>167</v>
       </c>
@@ -7876,25 +8063,32 @@
         <v>93520</v>
       </c>
       <c r="D17" s="2">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42718</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>76</v>
       </c>
-      <c r="E17" s="2">
+      <c r="H17" s="2">
         <v>110532</v>
       </c>
-      <c r="G17" s="2">
+      <c r="J17" s="2">
         <v>110</v>
       </c>
-      <c r="H17" s="2">
+      <c r="K17" s="2">
         <v>254802</v>
       </c>
-      <c r="J17" s="2">
+      <c r="M17" s="2">
         <v>72</v>
       </c>
-      <c r="K17" s="2">
+      <c r="N17" s="2">
         <v>233031</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>278</v>
       </c>
@@ -7902,25 +8096,32 @@
         <v>156945</v>
       </c>
       <c r="D18" s="2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>22003</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>123</v>
       </c>
-      <c r="E18" s="2">
+      <c r="H18" s="2">
         <v>178966</v>
       </c>
-      <c r="G18" s="2">
+      <c r="J18" s="2">
         <v>118</v>
       </c>
-      <c r="H18" s="2">
+      <c r="K18" s="2">
         <v>273610</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M18" s="2">
         <v>36</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N18" s="2">
         <v>116617</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>223</v>
       </c>
@@ -7928,25 +8129,32 @@
         <v>125745</v>
       </c>
       <c r="D19" s="2">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2">
+        <v>161254</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>89</v>
       </c>
-      <c r="E19" s="2">
+      <c r="H19" s="2">
         <v>129190</v>
       </c>
-      <c r="G19" s="2">
+      <c r="J19" s="2">
         <v>86</v>
       </c>
-      <c r="H19" s="2">
+      <c r="K19" s="2">
         <v>199623</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M19" s="2">
         <v>26</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>84725</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>109</v>
       </c>
@@ -7954,25 +8162,32 @@
         <v>61623</v>
       </c>
       <c r="D20" s="2">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2">
+        <v>158166</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>79</v>
       </c>
-      <c r="E20" s="2">
+      <c r="H20" s="2">
         <v>115166</v>
       </c>
-      <c r="G20" s="2">
+      <c r="J20" s="2">
         <v>85</v>
       </c>
-      <c r="H20" s="2">
+      <c r="K20" s="2">
         <v>197580</v>
       </c>
-      <c r="J20" s="2">
+      <c r="M20" s="2">
         <v>19</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>62512</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>47</v>
       </c>
@@ -7980,25 +8195,32 @@
         <v>26707</v>
       </c>
       <c r="D21" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2">
-        <v>142878</v>
-      </c>
+        <v>145573</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>98</v>
       </c>
       <c r="H21" s="2">
+        <v>142878</v>
+      </c>
+      <c r="J21" s="2">
+        <v>98</v>
+      </c>
+      <c r="K21" s="2">
         <v>227551</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M21" s="2">
         <v>16</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
         <v>53439</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43</v>
       </c>
@@ -8006,25 +8228,32 @@
         <v>24470</v>
       </c>
       <c r="D22" s="2">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2">
+        <v>81524</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
         <v>63</v>
       </c>
-      <c r="E22" s="2">
+      <c r="H22" s="2">
         <v>91904</v>
       </c>
-      <c r="G22" s="2">
+      <c r="J22" s="2">
         <v>81</v>
       </c>
-      <c r="H22" s="2">
+      <c r="K22" s="2">
         <v>188183</v>
       </c>
-      <c r="J22" s="2">
+      <c r="M22" s="2">
         <v>17</v>
       </c>
-      <c r="K22" s="2">
+      <c r="N22" s="2">
         <v>57314</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>74</v>
       </c>
@@ -8032,25 +8261,32 @@
         <v>42088</v>
       </c>
       <c r="D23" s="2">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2">
+        <v>109210</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
         <v>121</v>
       </c>
-      <c r="E23" s="2">
+      <c r="H23" s="2">
         <v>176264</v>
       </c>
-      <c r="G23" s="2">
+      <c r="J23" s="2">
         <v>106</v>
       </c>
-      <c r="H23" s="2">
+      <c r="K23" s="2">
         <v>246158</v>
       </c>
-      <c r="J23" s="2">
+      <c r="M23" s="2">
         <v>19</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>64096</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>83</v>
       </c>
@@ -8061,22 +8297,29 @@
         <v>500</v>
       </c>
       <c r="E24" s="2">
+        <v>581496</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>500</v>
+      </c>
+      <c r="H24" s="2">
         <v>729458</v>
       </c>
-      <c r="G24" s="2">
-        <v>500</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="J24" s="2">
+        <v>500</v>
+      </c>
+      <c r="K24" s="2">
         <v>1164127</v>
       </c>
-      <c r="J24" s="2">
+      <c r="M24" s="2">
         <v>23</v>
       </c>
-      <c r="K24" s="2">
+      <c r="N24" s="2">
         <v>77004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>103</v>
       </c>
@@ -8084,25 +8327,32 @@
         <v>58583</v>
       </c>
       <c r="D25" s="2">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2">
+        <v>39363</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>500</v>
+      </c>
+      <c r="H25" s="2">
         <v>729922</v>
       </c>
-      <c r="G25" s="2">
-        <v>500</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="J25" s="2">
+        <v>500</v>
+      </c>
+      <c r="K25" s="2">
         <v>1163363</v>
       </c>
-      <c r="J25" s="2">
-        <v>500</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
+        <v>500</v>
+      </c>
+      <c r="N25" s="2">
         <v>1634930</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>107</v>
       </c>
@@ -8113,22 +8363,29 @@
         <v>500</v>
       </c>
       <c r="E26" s="2">
+        <v>580235</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>500</v>
+      </c>
+      <c r="H26" s="2">
         <v>727321</v>
       </c>
-      <c r="G26" s="2">
-        <v>500</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="J26" s="2">
+        <v>500</v>
+      </c>
+      <c r="K26" s="2">
         <v>1159582</v>
       </c>
-      <c r="J26" s="2">
+      <c r="M26" s="2">
         <v>99</v>
       </c>
-      <c r="K26" s="2">
+      <c r="N26" s="2">
         <v>322152</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>112</v>
       </c>
@@ -8139,22 +8396,29 @@
         <v>500</v>
       </c>
       <c r="E27" s="2">
+        <v>580576</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>500</v>
+      </c>
+      <c r="H27" s="2">
         <v>725610</v>
       </c>
-      <c r="G27" s="2">
-        <v>500</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="J27" s="2">
+        <v>500</v>
+      </c>
+      <c r="K27" s="2">
         <v>1156738</v>
       </c>
-      <c r="J27" s="2">
+      <c r="M27" s="2">
         <v>348</v>
       </c>
-      <c r="K27" s="2">
+      <c r="N27" s="2">
         <v>1136438</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>123</v>
       </c>
@@ -8165,22 +8429,29 @@
         <v>500</v>
       </c>
       <c r="E28" s="2">
+        <v>585976</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>500</v>
+      </c>
+      <c r="H28" s="2">
         <v>772136</v>
       </c>
-      <c r="G28" s="2">
-        <v>500</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="J28" s="2">
+        <v>500</v>
+      </c>
+      <c r="K28" s="2">
         <v>1225497</v>
       </c>
-      <c r="J28" s="2">
+      <c r="M28" s="2">
         <v>416</v>
       </c>
-      <c r="K28" s="2">
+      <c r="N28" s="2">
         <v>1357924</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>129</v>
       </c>
@@ -8191,22 +8462,29 @@
         <v>500</v>
       </c>
       <c r="E29" s="2">
+        <v>610452</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>500</v>
+      </c>
+      <c r="H29" s="2">
         <v>780882</v>
       </c>
-      <c r="G29" s="2">
-        <v>500</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="J29" s="2">
+        <v>500</v>
+      </c>
+      <c r="K29" s="2">
         <v>1245124</v>
       </c>
-      <c r="J29" s="2">
-        <v>500</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="M29" s="2">
+        <v>500</v>
+      </c>
+      <c r="N29" s="2">
         <v>1631451</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>500</v>
       </c>
@@ -8217,22 +8495,29 @@
         <v>500</v>
       </c>
       <c r="E30" s="2">
+        <v>622263</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>500</v>
+      </c>
+      <c r="H30" s="2">
         <v>782545</v>
       </c>
-      <c r="G30" s="2">
-        <v>500</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="J30" s="2">
+        <v>500</v>
+      </c>
+      <c r="K30" s="2">
         <v>1247642</v>
       </c>
-      <c r="J30" s="2">
-        <v>500</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="M30" s="2">
+        <v>500</v>
+      </c>
+      <c r="N30" s="2">
         <v>1630868</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>500</v>
       </c>
@@ -8243,22 +8528,29 @@
         <v>500</v>
       </c>
       <c r="E31" s="2">
+        <v>623832</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>500</v>
+      </c>
+      <c r="H31" s="2">
         <v>784067</v>
       </c>
-      <c r="G31" s="2">
-        <v>500</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="J31" s="2">
+        <v>500</v>
+      </c>
+      <c r="K31" s="2">
         <v>1250120</v>
       </c>
-      <c r="J31" s="2">
-        <v>500</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="M31" s="2">
+        <v>500</v>
+      </c>
+      <c r="N31" s="2">
         <v>1629868</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>500</v>
       </c>
@@ -8269,22 +8561,29 @@
         <v>500</v>
       </c>
       <c r="E32" s="2">
+        <v>625380</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>500</v>
+      </c>
+      <c r="H32" s="2">
         <v>785305</v>
       </c>
-      <c r="G32" s="2">
-        <v>500</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="J32" s="2">
+        <v>500</v>
+      </c>
+      <c r="K32" s="2">
         <v>1252170</v>
       </c>
-      <c r="J32" s="2">
+      <c r="M32" s="2">
         <v>316</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N32" s="2">
         <v>1027940</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>500</v>
       </c>
@@ -8295,22 +8594,29 @@
         <v>500</v>
       </c>
       <c r="E33" s="2">
+        <v>627489</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>500</v>
+      </c>
+      <c r="H33" s="2">
         <v>786619</v>
       </c>
-      <c r="G33" s="2">
-        <v>500</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="J33" s="2">
+        <v>500</v>
+      </c>
+      <c r="K33" s="2">
         <v>1254237</v>
       </c>
-      <c r="J33" s="2">
-        <v>500</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
+        <v>500</v>
+      </c>
+      <c r="N33" s="2">
         <v>1630370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>500</v>
       </c>
@@ -8321,22 +8627,29 @@
         <v>500</v>
       </c>
       <c r="E34" s="2">
+        <v>628718</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>500</v>
+      </c>
+      <c r="H34" s="2">
         <v>787937</v>
       </c>
-      <c r="G34" s="2">
-        <v>500</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="J34" s="2">
+        <v>500</v>
+      </c>
+      <c r="K34" s="2">
         <v>1256408</v>
       </c>
-      <c r="J34" s="2">
-        <v>500</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
+        <v>500</v>
+      </c>
+      <c r="N34" s="2">
         <v>1630827</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>202</v>
       </c>
@@ -8347,22 +8660,29 @@
         <v>500</v>
       </c>
       <c r="E35" s="2">
+        <v>628727</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>500</v>
+      </c>
+      <c r="H35" s="2">
         <v>789519</v>
       </c>
-      <c r="G35" s="2">
-        <v>500</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
+        <v>500</v>
+      </c>
+      <c r="K35" s="2">
         <v>1258575</v>
       </c>
-      <c r="J35" s="2">
-        <v>500</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="M35" s="2">
+        <v>500</v>
+      </c>
+      <c r="N35" s="2">
         <v>1627015</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>13</v>
       </c>
@@ -8373,22 +8693,29 @@
         <v>500</v>
       </c>
       <c r="E36" s="2">
+        <v>628750</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>500</v>
+      </c>
+      <c r="H36" s="2">
         <v>790199</v>
       </c>
-      <c r="G36" s="2">
-        <v>500</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="J36" s="2">
+        <v>500</v>
+      </c>
+      <c r="K36" s="2">
         <v>1259497</v>
       </c>
-      <c r="J36" s="2">
+      <c r="M36" s="2">
         <v>309</v>
       </c>
-      <c r="K36" s="2">
+      <c r="N36" s="2">
         <v>1006687</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>13</v>
       </c>
@@ -8399,22 +8726,29 @@
         <v>500</v>
       </c>
       <c r="E37" s="2">
+        <v>628749</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>500</v>
+      </c>
+      <c r="H37" s="2">
         <v>790198</v>
       </c>
-      <c r="G37" s="2">
-        <v>500</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
+        <v>500</v>
+      </c>
+      <c r="K37" s="2">
         <v>1259537</v>
       </c>
-      <c r="J37" s="2">
+      <c r="M37" s="2">
         <v>51</v>
       </c>
-      <c r="K37" s="2">
+      <c r="N37" s="2">
         <v>165502</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>13</v>
       </c>
@@ -8425,22 +8759,29 @@
         <v>500</v>
       </c>
       <c r="E38" s="2">
+        <v>628808</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>500</v>
+      </c>
+      <c r="H38" s="2">
         <v>790290</v>
       </c>
-      <c r="G38" s="2">
-        <v>500</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
+        <v>500</v>
+      </c>
+      <c r="K38" s="2">
         <v>1259654</v>
       </c>
-      <c r="J38" s="2">
-        <v>500</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
+        <v>500</v>
+      </c>
+      <c r="N38" s="2">
         <v>1631265</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>14</v>
       </c>
@@ -8451,22 +8792,29 @@
         <v>500</v>
       </c>
       <c r="E39" s="2">
+        <v>628862</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>500</v>
+      </c>
+      <c r="H39" s="2">
         <v>790214</v>
       </c>
-      <c r="G39" s="2">
-        <v>500</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="J39" s="2">
+        <v>500</v>
+      </c>
+      <c r="K39" s="2">
         <v>1259521</v>
       </c>
-      <c r="J39" s="2">
+      <c r="M39" s="2">
         <v>280</v>
       </c>
-      <c r="K39" s="2">
+      <c r="N39" s="2">
         <v>911271</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>14</v>
       </c>
@@ -8477,22 +8825,29 @@
         <v>500</v>
       </c>
       <c r="E40" s="2">
+        <v>628891</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>500</v>
+      </c>
+      <c r="H40" s="2">
         <v>745079</v>
       </c>
-      <c r="G40" s="2">
-        <v>500</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
+        <v>500</v>
+      </c>
+      <c r="K40" s="2">
         <v>1187514</v>
       </c>
-      <c r="J40" s="2">
+      <c r="M40" s="2">
         <v>364</v>
       </c>
-      <c r="K40" s="2">
+      <c r="N40" s="2">
         <v>1183338</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>14</v>
       </c>
@@ -8503,22 +8858,29 @@
         <v>500</v>
       </c>
       <c r="E41" s="2">
+        <v>628896</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>500</v>
+      </c>
+      <c r="H41" s="2">
         <v>744443</v>
       </c>
-      <c r="G41" s="2">
-        <v>500</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="J41" s="2">
+        <v>500</v>
+      </c>
+      <c r="K41" s="2">
         <v>1186403</v>
       </c>
-      <c r="J41" s="2">
-        <v>500</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="M41" s="2">
+        <v>500</v>
+      </c>
+      <c r="N41" s="2">
         <v>1624268</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>14</v>
       </c>
@@ -8529,22 +8891,29 @@
         <v>500</v>
       </c>
       <c r="E42" s="2">
+        <v>628919</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>500</v>
+      </c>
+      <c r="H42" s="2">
         <v>741968</v>
       </c>
-      <c r="G42" s="2">
-        <v>500</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="J42" s="2">
+        <v>500</v>
+      </c>
+      <c r="K42" s="2">
         <v>1182299</v>
       </c>
-      <c r="J42" s="2">
+      <c r="M42" s="2">
         <v>207</v>
       </c>
-      <c r="K42" s="2">
+      <c r="N42" s="2">
         <v>670983</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>14</v>
       </c>
@@ -8555,22 +8924,29 @@
         <v>500</v>
       </c>
       <c r="E43" s="2">
+        <v>628991</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>500</v>
+      </c>
+      <c r="H43" s="2">
         <v>741652</v>
       </c>
-      <c r="G43" s="2">
-        <v>500</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="J43" s="2">
+        <v>500</v>
+      </c>
+      <c r="K43" s="2">
         <v>1181852</v>
       </c>
-      <c r="J43" s="2">
+      <c r="M43" s="2">
         <v>499</v>
       </c>
-      <c r="K43" s="2">
+      <c r="N43" s="2">
         <v>1619558</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>14</v>
       </c>
@@ -8581,22 +8957,29 @@
         <v>500</v>
       </c>
       <c r="E44" s="2">
+        <v>629084</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>500</v>
+      </c>
+      <c r="H44" s="2">
         <v>743859</v>
       </c>
-      <c r="G44" s="2">
-        <v>500</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="J44" s="2">
+        <v>500</v>
+      </c>
+      <c r="K44" s="2">
         <v>1185547</v>
       </c>
-      <c r="J44" s="2">
+      <c r="M44" s="2">
         <v>142</v>
       </c>
-      <c r="K44" s="2">
+      <c r="N44" s="2">
         <v>461646</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>14</v>
       </c>
@@ -8607,22 +8990,29 @@
         <v>500</v>
       </c>
       <c r="E45" s="2">
+        <v>629042</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>500</v>
+      </c>
+      <c r="H45" s="2">
         <v>743235</v>
       </c>
-      <c r="G45" s="2">
-        <v>500</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="J45" s="2">
+        <v>500</v>
+      </c>
+      <c r="K45" s="2">
         <v>1184704</v>
       </c>
-      <c r="J45" s="2">
-        <v>500</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
+        <v>500</v>
+      </c>
+      <c r="N45" s="2">
         <v>1624700</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>14</v>
       </c>
@@ -8633,22 +9023,29 @@
         <v>500</v>
       </c>
       <c r="E46" s="2">
+        <v>628826</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>500</v>
+      </c>
+      <c r="H46" s="2">
         <v>742830</v>
       </c>
-      <c r="G46" s="2">
-        <v>500</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="J46" s="2">
+        <v>500</v>
+      </c>
+      <c r="K46" s="2">
         <v>1184010</v>
       </c>
-      <c r="J46" s="2">
+      <c r="M46" s="2">
         <v>212</v>
       </c>
-      <c r="K46" s="2">
+      <c r="N46" s="2">
         <v>686987</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>14</v>
       </c>
@@ -8659,22 +9056,29 @@
         <v>500</v>
       </c>
       <c r="E47" s="2">
+        <v>592870</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>500</v>
+      </c>
+      <c r="H47" s="2">
         <v>740501</v>
       </c>
-      <c r="G47" s="2">
-        <v>500</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="J47" s="2">
+        <v>500</v>
+      </c>
+      <c r="K47" s="2">
         <v>1180498</v>
       </c>
-      <c r="J47" s="2">
-        <v>500</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="M47" s="2">
+        <v>500</v>
+      </c>
+      <c r="N47" s="2">
         <v>1621039</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -8685,22 +9089,29 @@
         <v>500</v>
       </c>
       <c r="E48" s="2">
+        <v>590576</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>500</v>
+      </c>
+      <c r="H48" s="2">
         <v>736934</v>
       </c>
-      <c r="G48" s="2">
-        <v>500</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="J48" s="2">
+        <v>500</v>
+      </c>
+      <c r="K48" s="2">
         <v>1175144</v>
       </c>
-      <c r="J48" s="2">
+      <c r="M48" s="2">
         <v>499</v>
       </c>
-      <c r="K48" s="2">
+      <c r="N48" s="2">
         <v>1621308</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>14</v>
       </c>
@@ -8711,22 +9122,29 @@
         <v>500</v>
       </c>
       <c r="E49" s="2">
+        <v>590377</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>500</v>
+      </c>
+      <c r="H49" s="2">
         <v>737756</v>
       </c>
-      <c r="G49" s="2">
-        <v>500</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="J49" s="2">
+        <v>500</v>
+      </c>
+      <c r="K49" s="2">
         <v>1175781</v>
       </c>
-      <c r="J49" s="2">
+      <c r="M49" s="2">
         <v>298</v>
       </c>
-      <c r="K49" s="2">
+      <c r="N49" s="2">
         <v>966445</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>14</v>
       </c>
@@ -8737,22 +9155,29 @@
         <v>500</v>
       </c>
       <c r="E50" s="2">
+        <v>592280</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>500</v>
+      </c>
+      <c r="H50" s="2">
         <v>735452</v>
       </c>
-      <c r="G50" s="2">
-        <v>500</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="J50" s="2">
+        <v>500</v>
+      </c>
+      <c r="K50" s="2">
         <v>1172463</v>
       </c>
-      <c r="J50" s="2">
-        <v>500</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="M50" s="2">
+        <v>500</v>
+      </c>
+      <c r="N50" s="2">
         <v>1623556</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>14</v>
       </c>
@@ -8763,22 +9188,29 @@
         <v>500</v>
       </c>
       <c r="E51" s="2">
+        <v>593223</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>500</v>
+      </c>
+      <c r="H51" s="2">
         <v>734519</v>
       </c>
-      <c r="G51" s="2">
-        <v>500</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="J51" s="2">
+        <v>500</v>
+      </c>
+      <c r="K51" s="2">
         <v>1170791</v>
       </c>
-      <c r="J51" s="2">
-        <v>500</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="M51" s="2">
+        <v>500</v>
+      </c>
+      <c r="N51" s="2">
         <v>1622379</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>14</v>
       </c>
@@ -8789,22 +9221,29 @@
         <v>500</v>
       </c>
       <c r="E52" s="2">
+        <v>593899</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>500</v>
+      </c>
+      <c r="H52" s="2">
         <v>733609</v>
       </c>
-      <c r="G52" s="2">
-        <v>500</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="J52" s="2">
+        <v>500</v>
+      </c>
+      <c r="K52" s="2">
         <v>1168957</v>
       </c>
-      <c r="J52" s="2">
-        <v>500</v>
-      </c>
-      <c r="K52" s="2">
+      <c r="M52" s="2">
+        <v>500</v>
+      </c>
+      <c r="N52" s="2">
         <v>1621334</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>14</v>
       </c>
@@ -8815,22 +9254,29 @@
         <v>500</v>
       </c>
       <c r="E53" s="2">
+        <v>594457</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>500</v>
+      </c>
+      <c r="H53" s="2">
         <v>732590</v>
       </c>
-      <c r="G53" s="2">
-        <v>500</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="J53" s="2">
+        <v>500</v>
+      </c>
+      <c r="K53" s="2">
         <v>1167983</v>
       </c>
-      <c r="J53" s="2">
-        <v>500</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="M53" s="2">
+        <v>500</v>
+      </c>
+      <c r="N53" s="2">
         <v>1620256</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>14</v>
       </c>
@@ -8841,22 +9287,29 @@
         <v>500</v>
       </c>
       <c r="E54" s="2">
+        <v>596680</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>500</v>
+      </c>
+      <c r="H54" s="2">
         <v>728874</v>
       </c>
-      <c r="G54" s="2">
-        <v>500</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="J54" s="2">
+        <v>500</v>
+      </c>
+      <c r="K54" s="2">
         <v>1164923</v>
       </c>
-      <c r="J54" s="2">
-        <v>500</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="M54" s="2">
+        <v>500</v>
+      </c>
+      <c r="N54" s="2">
         <v>1617838</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>14</v>
       </c>
@@ -8867,22 +9320,29 @@
         <v>500</v>
       </c>
       <c r="E55" s="2">
+        <v>596586</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>500</v>
+      </c>
+      <c r="H55" s="2">
         <v>726108</v>
       </c>
-      <c r="G55" s="2">
-        <v>500</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="J55" s="2">
+        <v>500</v>
+      </c>
+      <c r="K55" s="2">
         <v>1154096</v>
       </c>
-      <c r="J55" s="2">
+      <c r="M55" s="2">
         <v>98</v>
       </c>
-      <c r="K55" s="2">
+      <c r="N55" s="2">
         <v>316412</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>14</v>
       </c>
@@ -8890,25 +9350,32 @@
         <v>8726</v>
       </c>
       <c r="D56" s="2">
+        <v>500</v>
+      </c>
+      <c r="E56" s="2">
+        <v>595436</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
         <v>221</v>
       </c>
-      <c r="E56" s="2">
+      <c r="H56" s="2">
         <v>318250</v>
       </c>
-      <c r="G56" s="2">
+      <c r="J56" s="2">
         <v>253</v>
       </c>
-      <c r="H56" s="2">
+      <c r="K56" s="2">
         <v>582983</v>
       </c>
-      <c r="J56" s="2">
+      <c r="M56" s="2">
         <v>5</v>
       </c>
-      <c r="K56" s="2">
+      <c r="N56" s="2">
         <v>14788</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>14</v>
       </c>
@@ -8916,25 +9383,32 @@
         <v>8728</v>
       </c>
       <c r="D57" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E57" s="2">
-        <v>6073</v>
-      </c>
+        <v>592544</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2">
         <v>5</v>
       </c>
       <c r="H57" s="2">
+        <v>6073</v>
+      </c>
+      <c r="J57" s="2">
+        <v>5</v>
+      </c>
+      <c r="K57" s="2">
         <v>9666</v>
       </c>
-      <c r="J57" s="2">
+      <c r="M57" s="2">
         <v>80</v>
       </c>
-      <c r="K57" s="2">
+      <c r="N57" s="2">
         <v>259214</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>14</v>
       </c>
@@ -8942,25 +9416,32 @@
         <v>8728</v>
       </c>
       <c r="D58" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E58" s="2">
-        <v>6092</v>
-      </c>
+        <v>589475</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2">
         <v>5</v>
       </c>
       <c r="H58" s="2">
+        <v>6092</v>
+      </c>
+      <c r="J58" s="2">
+        <v>5</v>
+      </c>
+      <c r="K58" s="2">
         <v>9698</v>
       </c>
-      <c r="J58" s="2">
+      <c r="M58" s="2">
         <v>94</v>
       </c>
-      <c r="K58" s="2">
+      <c r="N58" s="2">
         <v>304553</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>14</v>
       </c>
@@ -8968,25 +9449,32 @@
         <v>8728</v>
       </c>
       <c r="D59" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E59" s="2">
-        <v>6092</v>
-      </c>
+        <v>585880</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>5</v>
       </c>
       <c r="H59" s="2">
+        <v>6092</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5</v>
+      </c>
+      <c r="K59" s="2">
         <v>9696</v>
       </c>
-      <c r="J59" s="2">
+      <c r="M59" s="2">
         <v>64</v>
       </c>
-      <c r="K59" s="2">
+      <c r="N59" s="2">
         <v>206247</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>14</v>
       </c>
@@ -8994,25 +9482,32 @@
         <v>8726</v>
       </c>
       <c r="D60" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E60" s="2">
-        <v>6093</v>
-      </c>
+        <v>581846</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2">
         <v>5</v>
       </c>
       <c r="H60" s="2">
+        <v>6093</v>
+      </c>
+      <c r="J60" s="2">
+        <v>5</v>
+      </c>
+      <c r="K60" s="2">
         <v>9700</v>
       </c>
-      <c r="J60" s="2">
+      <c r="M60" s="2">
         <v>19</v>
       </c>
-      <c r="K60" s="2">
+      <c r="N60" s="2">
         <v>60471</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>15</v>
       </c>
@@ -9020,25 +9515,32 @@
         <v>9348</v>
       </c>
       <c r="D61" s="2">
-        <v>58</v>
+        <v>500</v>
       </c>
       <c r="E61" s="2">
-        <v>84229</v>
-      </c>
+        <v>580910</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2">
         <v>58</v>
       </c>
       <c r="H61" s="2">
-        <v>134268</v>
+        <v>84229</v>
       </c>
       <c r="J61" s="2">
         <v>58</v>
       </c>
       <c r="K61" s="2">
+        <v>134268</v>
+      </c>
+      <c r="M61" s="2">
+        <v>58</v>
+      </c>
+      <c r="N61" s="2">
         <v>187958</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>15</v>
       </c>
@@ -9046,25 +9548,32 @@
         <v>9350</v>
       </c>
       <c r="D62" s="2">
+        <v>500</v>
+      </c>
+      <c r="E62" s="2">
+        <v>576516</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
         <v>66</v>
       </c>
-      <c r="E62" s="2">
+      <c r="H62" s="2">
         <v>95554</v>
       </c>
-      <c r="G62" s="2">
+      <c r="J62" s="2">
         <v>67</v>
       </c>
-      <c r="H62" s="2">
+      <c r="K62" s="2">
         <v>154461</v>
       </c>
-      <c r="J62" s="2">
+      <c r="M62" s="2">
         <v>53</v>
       </c>
-      <c r="K62" s="2">
+      <c r="N62" s="2">
         <v>171940</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>15</v>
       </c>
@@ -9072,25 +9581,32 @@
         <v>9350</v>
       </c>
       <c r="D63" s="2">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="E63" s="2">
-        <v>99969</v>
-      </c>
+        <v>213236</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2">
         <v>69</v>
       </c>
       <c r="H63" s="2">
+        <v>99969</v>
+      </c>
+      <c r="J63" s="2">
+        <v>69</v>
+      </c>
+      <c r="K63" s="2">
         <v>159135</v>
       </c>
-      <c r="J63" s="2">
+      <c r="M63" s="2">
         <v>52</v>
       </c>
-      <c r="K63" s="2">
+      <c r="N63" s="2">
         <v>168590</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>15</v>
       </c>
@@ -9098,25 +9614,32 @@
         <v>9351</v>
       </c>
       <c r="D64" s="2">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2">
+        <v>33345</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
         <v>61</v>
       </c>
-      <c r="E64" s="2">
+      <c r="H64" s="2">
         <v>88388</v>
       </c>
-      <c r="G64" s="2">
+      <c r="J64" s="2">
         <v>60</v>
       </c>
-      <c r="H64" s="2">
+      <c r="K64" s="2">
         <v>138496</v>
       </c>
-      <c r="J64" s="2">
+      <c r="M64" s="2">
         <v>50</v>
       </c>
-      <c r="K64" s="2">
+      <c r="N64" s="2">
         <v>161880</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>15</v>
       </c>
@@ -9124,25 +9647,32 @@
         <v>9351</v>
       </c>
       <c r="D65" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E65" s="2">
-        <v>66789</v>
-      </c>
+        <v>63532</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2">
         <v>46</v>
       </c>
       <c r="H65" s="2">
+        <v>66789</v>
+      </c>
+      <c r="J65" s="2">
+        <v>46</v>
+      </c>
+      <c r="K65" s="2">
         <v>106356</v>
       </c>
-      <c r="J65" s="2">
+      <c r="M65" s="2">
         <v>52</v>
       </c>
-      <c r="K65" s="2">
+      <c r="N65" s="2">
         <v>168481</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>15</v>
       </c>
@@ -9150,25 +9680,32 @@
         <v>9351</v>
       </c>
       <c r="D66" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E66" s="2">
-        <v>56598</v>
-      </c>
+        <v>60251</v>
+      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2">
         <v>39</v>
       </c>
       <c r="H66" s="2">
+        <v>56598</v>
+      </c>
+      <c r="J66" s="2">
+        <v>39</v>
+      </c>
+      <c r="K66" s="2">
         <v>90208</v>
       </c>
-      <c r="J66" s="2">
+      <c r="M66" s="2">
         <v>54</v>
       </c>
-      <c r="K66" s="2">
+      <c r="N66" s="2">
         <v>175040</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>15</v>
       </c>
@@ -9176,25 +9713,32 @@
         <v>9353</v>
       </c>
       <c r="D67" s="2">
+        <v>60</v>
+      </c>
+      <c r="E67" s="2">
+        <v>69569</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
         <v>26</v>
       </c>
-      <c r="E67" s="2">
+      <c r="H67" s="2">
         <v>37626</v>
       </c>
-      <c r="G67" s="2">
+      <c r="J67" s="2">
         <v>25</v>
       </c>
-      <c r="H67" s="2">
+      <c r="K67" s="2">
         <v>57654</v>
       </c>
-      <c r="J67" s="2">
+      <c r="M67" s="2">
         <v>41</v>
       </c>
-      <c r="K67" s="2">
+      <c r="N67" s="2">
         <v>132870</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>15</v>
       </c>
@@ -9202,25 +9746,32 @@
         <v>9353</v>
       </c>
       <c r="D68" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E68" s="2">
-        <v>23106</v>
-      </c>
+        <v>58998</v>
+      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2">
         <v>16</v>
       </c>
       <c r="H68" s="2">
+        <v>23106</v>
+      </c>
+      <c r="J68" s="2">
+        <v>16</v>
+      </c>
+      <c r="K68" s="2">
         <v>36817</v>
       </c>
-      <c r="J68" s="2">
+      <c r="M68" s="2">
         <v>54</v>
       </c>
-      <c r="K68" s="2">
+      <c r="N68" s="2">
         <v>174827</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>15</v>
       </c>
@@ -9228,25 +9779,32 @@
         <v>9354</v>
       </c>
       <c r="D69" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E69" s="2">
-        <v>26069</v>
-      </c>
+        <v>49708</v>
+      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2">
         <v>18</v>
       </c>
       <c r="H69" s="2">
+        <v>26069</v>
+      </c>
+      <c r="J69" s="2">
+        <v>18</v>
+      </c>
+      <c r="K69" s="2">
         <v>41547</v>
       </c>
-      <c r="J69" s="2">
+      <c r="M69" s="2">
         <v>50</v>
       </c>
-      <c r="K69" s="2">
+      <c r="N69" s="2">
         <v>162022</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>15</v>
       </c>
@@ -9254,25 +9812,32 @@
         <v>9351</v>
       </c>
       <c r="D70" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2">
-        <v>36390</v>
-      </c>
+        <v>42901</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2">
         <v>25</v>
       </c>
       <c r="H70" s="2">
+        <v>36390</v>
+      </c>
+      <c r="J70" s="2">
+        <v>25</v>
+      </c>
+      <c r="K70" s="2">
         <v>57991</v>
       </c>
-      <c r="J70" s="2">
+      <c r="M70" s="2">
         <v>60</v>
       </c>
-      <c r="K70" s="2">
+      <c r="N70" s="2">
         <v>194371</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>15</v>
       </c>
@@ -9280,25 +9845,32 @@
         <v>9348</v>
       </c>
       <c r="D71" s="2">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2">
+        <v>31379</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
         <v>107</v>
       </c>
-      <c r="E71" s="2">
+      <c r="H71" s="2">
         <v>156472</v>
       </c>
-      <c r="G71" s="2">
+      <c r="J71" s="2">
         <v>108</v>
       </c>
-      <c r="H71" s="2">
+      <c r="K71" s="2">
         <v>251334</v>
       </c>
-      <c r="J71" s="2">
+      <c r="M71" s="2">
         <v>74</v>
       </c>
-      <c r="K71" s="2">
+      <c r="N71" s="2">
         <v>240490</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>15</v>
       </c>
@@ -9306,25 +9878,32 @@
         <v>9348</v>
       </c>
       <c r="D72" s="2">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2">
+        <v>22107</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
         <v>81</v>
       </c>
-      <c r="E72" s="2">
+      <c r="H72" s="2">
         <v>118489</v>
       </c>
-      <c r="G72" s="2">
+      <c r="J72" s="2">
         <v>80</v>
       </c>
-      <c r="H72" s="2">
+      <c r="K72" s="2">
         <v>186359</v>
       </c>
-      <c r="J72" s="2">
+      <c r="M72" s="2">
         <v>37</v>
       </c>
-      <c r="K72" s="2">
+      <c r="N72" s="2">
         <v>120567</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>15</v>
       </c>
@@ -9332,25 +9911,32 @@
         <v>9346</v>
       </c>
       <c r="D73" s="2">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
-        <v>104200</v>
-      </c>
+        <v>15132</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2">
         <v>71</v>
       </c>
       <c r="H73" s="2">
+        <v>104200</v>
+      </c>
+      <c r="J73" s="2">
+        <v>71</v>
+      </c>
+      <c r="K73" s="2">
         <v>165861</v>
       </c>
-      <c r="J73" s="2">
+      <c r="M73" s="2">
         <v>27</v>
       </c>
-      <c r="K73" s="2">
+      <c r="N73" s="2">
         <v>87550</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>15</v>
       </c>
@@ -9358,25 +9944,32 @@
         <v>9347</v>
       </c>
       <c r="D74" s="2">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2">
-        <v>91118</v>
-      </c>
+        <v>23324</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2">
         <v>62</v>
       </c>
       <c r="H74" s="2">
+        <v>91118</v>
+      </c>
+      <c r="J74" s="2">
+        <v>62</v>
+      </c>
+      <c r="K74" s="2">
         <v>145087</v>
       </c>
-      <c r="J74" s="2">
+      <c r="M74" s="2">
         <v>25</v>
       </c>
-      <c r="K74" s="2">
+      <c r="N74" s="2">
         <v>81073</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>15</v>
       </c>
@@ -9384,25 +9977,32 @@
         <v>9347</v>
       </c>
       <c r="D75" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2">
-        <v>82355</v>
-      </c>
+        <v>33945</v>
+      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2">
         <v>56</v>
       </c>
       <c r="H75" s="2">
+        <v>82355</v>
+      </c>
+      <c r="J75" s="2">
+        <v>56</v>
+      </c>
+      <c r="K75" s="2">
         <v>131115</v>
       </c>
-      <c r="J75" s="2">
-        <v>500</v>
-      </c>
-      <c r="K75" s="2">
+      <c r="M75" s="2">
+        <v>500</v>
+      </c>
+      <c r="N75" s="2">
         <v>1619952</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>15</v>
       </c>
@@ -9410,25 +10010,32 @@
         <v>9346</v>
       </c>
       <c r="D76" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E76" s="2">
-        <v>76460</v>
-      </c>
+        <v>45656</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2">
         <v>52</v>
       </c>
       <c r="H76" s="2">
+        <v>76460</v>
+      </c>
+      <c r="J76" s="2">
+        <v>52</v>
+      </c>
+      <c r="K76" s="2">
         <v>121667</v>
       </c>
-      <c r="J76" s="2">
+      <c r="M76" s="2">
         <v>4</v>
       </c>
-      <c r="K76" s="2">
+      <c r="N76" s="2">
         <v>11397</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>15</v>
       </c>
@@ -9436,25 +10043,32 @@
         <v>9345</v>
       </c>
       <c r="D77" s="2">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="E77" s="2">
-        <v>74883</v>
-      </c>
+        <v>584974</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2">
         <v>51</v>
       </c>
       <c r="H77" s="2">
+        <v>74883</v>
+      </c>
+      <c r="J77" s="2">
+        <v>51</v>
+      </c>
+      <c r="K77" s="2">
         <v>119174</v>
       </c>
-      <c r="J77" s="2">
+      <c r="M77" s="2">
         <v>4</v>
       </c>
-      <c r="K77" s="2">
+      <c r="N77" s="2">
         <v>11306</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>15</v>
       </c>
@@ -9462,25 +10076,32 @@
         <v>9345</v>
       </c>
       <c r="D78" s="2">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E78" s="2">
-        <v>76171</v>
-      </c>
+        <v>4091</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2">
         <v>52</v>
       </c>
       <c r="H78" s="2">
+        <v>76171</v>
+      </c>
+      <c r="J78" s="2">
+        <v>52</v>
+      </c>
+      <c r="K78" s="2">
         <v>121478</v>
       </c>
-      <c r="J78" s="2">
+      <c r="M78" s="2">
         <v>4</v>
       </c>
-      <c r="K78" s="2">
+      <c r="N78" s="2">
         <v>11305</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>15</v>
       </c>
@@ -9488,25 +10109,32 @@
         <v>9346</v>
       </c>
       <c r="D79" s="2">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E79" s="2">
-        <v>79181</v>
-      </c>
+        <v>4089</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2">
         <v>54</v>
       </c>
       <c r="H79" s="2">
+        <v>79181</v>
+      </c>
+      <c r="J79" s="2">
+        <v>54</v>
+      </c>
+      <c r="K79" s="2">
         <v>126155</v>
       </c>
-      <c r="J79" s="2">
+      <c r="M79" s="2">
         <v>17</v>
       </c>
-      <c r="K79" s="2">
+      <c r="N79" s="2">
         <v>54740</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>15</v>
       </c>
@@ -9514,25 +10142,32 @@
         <v>9347</v>
       </c>
       <c r="D80" s="2">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2">
+        <v>13882</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
         <v>35</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>51085</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>36</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>83732</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>25433</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>15</v>
       </c>
@@ -9540,25 +10175,32 @@
         <v>9350</v>
       </c>
       <c r="D81" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E81" s="2">
-        <v>5043</v>
-      </c>
+        <v>27829</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2">
         <v>4</v>
       </c>
       <c r="H81" s="2">
+        <v>5043</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+      <c r="K81" s="2">
         <v>8031</v>
       </c>
-      <c r="J81" s="2">
+      <c r="M81" s="2">
         <v>26</v>
       </c>
-      <c r="K81" s="2">
+      <c r="N81" s="2">
         <v>84123</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>15</v>
       </c>
@@ -9566,25 +10208,32 @@
         <v>9350</v>
       </c>
       <c r="D82" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E82" s="2">
-        <v>29009</v>
-      </c>
+        <v>45441</v>
+      </c>
+      <c r="F82" s="2"/>
       <c r="G82" s="2">
         <v>20</v>
       </c>
       <c r="H82" s="2">
+        <v>29009</v>
+      </c>
+      <c r="J82" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" s="2">
         <v>46208</v>
       </c>
-      <c r="J82" s="2">
+      <c r="M82" s="2">
         <v>44</v>
       </c>
-      <c r="K82" s="2">
+      <c r="N82" s="2">
         <v>142439</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>15</v>
       </c>
@@ -9592,25 +10241,32 @@
         <v>9350</v>
       </c>
       <c r="D83" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E83" s="2">
-        <v>43663</v>
-      </c>
+        <v>65229</v>
+      </c>
+      <c r="F83" s="2"/>
       <c r="G83" s="2">
         <v>30</v>
       </c>
       <c r="H83" s="2">
+        <v>43663</v>
+      </c>
+      <c r="J83" s="2">
+        <v>30</v>
+      </c>
+      <c r="K83" s="2">
         <v>69551</v>
       </c>
-      <c r="J83" s="2">
+      <c r="M83" s="2">
         <v>50</v>
       </c>
-      <c r="K83" s="2">
+      <c r="N83" s="2">
         <v>161741</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>15</v>
       </c>
@@ -9618,25 +10274,32 @@
         <v>9350</v>
       </c>
       <c r="D84" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E84" s="2">
-        <v>58348</v>
-      </c>
+        <v>71109</v>
+      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2">
         <v>40</v>
       </c>
       <c r="H84" s="2">
+        <v>58348</v>
+      </c>
+      <c r="J84" s="2">
+        <v>40</v>
+      </c>
+      <c r="K84" s="2">
         <v>92998</v>
       </c>
-      <c r="J84" s="2">
+      <c r="M84" s="2">
         <v>32</v>
       </c>
-      <c r="K84" s="2">
+      <c r="N84" s="2">
         <v>103411</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>15</v>
       </c>
@@ -9644,25 +10307,32 @@
         <v>9351</v>
       </c>
       <c r="D85" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E85" s="2">
-        <v>70058</v>
-      </c>
+        <v>29069</v>
+      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2">
         <v>48</v>
       </c>
       <c r="H85" s="2">
+        <v>70058</v>
+      </c>
+      <c r="J85" s="2">
+        <v>48</v>
+      </c>
+      <c r="K85" s="2">
         <v>111632</v>
       </c>
-      <c r="J85" s="2">
+      <c r="M85" s="2">
         <v>80</v>
       </c>
-      <c r="K85" s="2">
+      <c r="N85" s="2">
         <v>260189</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>15</v>
       </c>
@@ -9670,25 +10340,32 @@
         <v>9346</v>
       </c>
       <c r="D86" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E86" s="2">
-        <v>50901</v>
-      </c>
+        <v>34917</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2">
         <v>35</v>
       </c>
       <c r="H86" s="2">
+        <v>50901</v>
+      </c>
+      <c r="J86" s="2">
+        <v>35</v>
+      </c>
+      <c r="K86" s="2">
         <v>81095</v>
       </c>
-      <c r="J86" s="2">
+      <c r="M86" s="2">
         <v>170</v>
       </c>
-      <c r="K86" s="2">
+      <c r="N86" s="2">
         <v>553848</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>15</v>
       </c>
@@ -9696,25 +10373,32 @@
         <v>9346</v>
       </c>
       <c r="D87" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2">
-        <v>69877</v>
-      </c>
+        <v>57980</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2">
         <v>48</v>
       </c>
       <c r="H87" s="2">
+        <v>69877</v>
+      </c>
+      <c r="J87" s="2">
+        <v>48</v>
+      </c>
+      <c r="K87" s="2">
         <v>111304</v>
       </c>
-      <c r="J87" s="2">
+      <c r="M87" s="2">
         <v>171</v>
       </c>
-      <c r="K87" s="2">
+      <c r="N87" s="2">
         <v>555913</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>15</v>
       </c>
@@ -9722,25 +10406,32 @@
         <v>9348</v>
       </c>
       <c r="D88" s="2">
+        <v>35</v>
+      </c>
+      <c r="E88" s="2">
+        <v>41135</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
         <v>49</v>
       </c>
-      <c r="E88" s="2">
+      <c r="H88" s="2">
         <v>71334</v>
       </c>
-      <c r="G88" s="2">
+      <c r="J88" s="2">
         <v>51</v>
       </c>
-      <c r="H88" s="2">
+      <c r="K88" s="2">
         <v>118404</v>
       </c>
-      <c r="J88" s="2">
+      <c r="M88" s="2">
         <v>162</v>
       </c>
-      <c r="K88" s="2">
+      <c r="N88" s="2">
         <v>527056</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>15</v>
       </c>
@@ -9751,22 +10442,29 @@
         <v>500</v>
       </c>
       <c r="E89" s="2">
+        <v>584325</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>500</v>
+      </c>
+      <c r="H89" s="2">
         <v>732503</v>
       </c>
-      <c r="G89" s="2">
-        <v>500</v>
-      </c>
-      <c r="H89" s="2">
+      <c r="J89" s="2">
+        <v>500</v>
+      </c>
+      <c r="K89" s="2">
         <v>1167475</v>
       </c>
-      <c r="J89" s="2">
+      <c r="M89" s="2">
         <v>162</v>
       </c>
-      <c r="K89" s="2">
+      <c r="N89" s="2">
         <v>527443</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>15</v>
       </c>
@@ -9777,22 +10475,29 @@
         <v>500</v>
       </c>
       <c r="E90" s="2">
+        <v>586802</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>500</v>
+      </c>
+      <c r="H90" s="2">
         <v>729666</v>
       </c>
-      <c r="G90" s="2">
-        <v>500</v>
-      </c>
-      <c r="H90" s="2">
+      <c r="J90" s="2">
+        <v>500</v>
+      </c>
+      <c r="K90" s="2">
         <v>1163044</v>
       </c>
-      <c r="J90" s="2">
+      <c r="M90" s="2">
         <v>171</v>
       </c>
-      <c r="K90" s="2">
+      <c r="N90" s="2">
         <v>556762</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>15</v>
       </c>
@@ -9803,22 +10508,29 @@
         <v>500</v>
       </c>
       <c r="E91" s="2">
+        <v>608551</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>500</v>
+      </c>
+      <c r="H91" s="2">
         <v>731153</v>
       </c>
-      <c r="G91" s="2">
-        <v>500</v>
-      </c>
-      <c r="H91" s="2">
+      <c r="J91" s="2">
+        <v>500</v>
+      </c>
+      <c r="K91" s="2">
         <v>1165433</v>
       </c>
-      <c r="J91" s="2">
+      <c r="M91" s="2">
         <v>201</v>
       </c>
-      <c r="K91" s="2">
+      <c r="N91" s="2">
         <v>655017</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>15</v>
       </c>
@@ -9829,22 +10541,29 @@
         <v>500</v>
       </c>
       <c r="E92" s="2">
+        <v>624317</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>500</v>
+      </c>
+      <c r="H92" s="2">
         <v>758564</v>
       </c>
-      <c r="G92" s="2">
-        <v>500</v>
-      </c>
-      <c r="H92" s="2">
+      <c r="J92" s="2">
+        <v>500</v>
+      </c>
+      <c r="K92" s="2">
         <v>1207077</v>
       </c>
-      <c r="J92" s="2">
+      <c r="M92" s="2">
         <v>230</v>
       </c>
-      <c r="K92" s="2">
+      <c r="N92" s="2">
         <v>750279</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>15</v>
       </c>
@@ -9855,22 +10574,29 @@
         <v>500</v>
       </c>
       <c r="E93" s="2">
+        <v>626257</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>500</v>
+      </c>
+      <c r="H93" s="2">
         <v>783603</v>
       </c>
-      <c r="G93" s="2">
-        <v>500</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="J93" s="2">
+        <v>500</v>
+      </c>
+      <c r="K93" s="2">
         <v>1248770</v>
       </c>
-      <c r="J93" s="2">
+      <c r="M93" s="2">
         <v>269</v>
       </c>
-      <c r="K93" s="2">
+      <c r="N93" s="2">
         <v>880171</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>15</v>
       </c>
@@ -9881,22 +10607,29 @@
         <v>500</v>
       </c>
       <c r="E94" s="2">
+        <v>627646</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>500</v>
+      </c>
+      <c r="H94" s="2">
         <v>784906</v>
       </c>
-      <c r="G94" s="2">
-        <v>500</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="J94" s="2">
+        <v>500</v>
+      </c>
+      <c r="K94" s="2">
         <v>1251073</v>
       </c>
-      <c r="J94" s="2">
+      <c r="M94" s="2">
         <v>276</v>
       </c>
-      <c r="K94" s="2">
+      <c r="N94" s="2">
         <v>905694</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>15</v>
       </c>
@@ -9907,22 +10640,29 @@
         <v>500</v>
       </c>
       <c r="E95" s="2">
+        <v>629194</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>500</v>
+      </c>
+      <c r="H95" s="2">
         <v>786230</v>
       </c>
-      <c r="G95" s="2">
-        <v>500</v>
-      </c>
-      <c r="H95" s="2">
+      <c r="J95" s="2">
+        <v>500</v>
+      </c>
+      <c r="K95" s="2">
         <v>1253136</v>
       </c>
-      <c r="J95" s="2">
+      <c r="M95" s="2">
         <v>260</v>
       </c>
-      <c r="K95" s="2">
+      <c r="N95" s="2">
         <v>851407</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>15</v>
       </c>
@@ -9933,22 +10673,29 @@
         <v>500</v>
       </c>
       <c r="E96" s="2">
+        <v>630969</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>500</v>
+      </c>
+      <c r="H96" s="2">
         <v>787500</v>
       </c>
-      <c r="G96" s="2">
-        <v>500</v>
-      </c>
-      <c r="H96" s="2">
+      <c r="J96" s="2">
+        <v>500</v>
+      </c>
+      <c r="K96" s="2">
         <v>1255185</v>
       </c>
-      <c r="J96" s="2">
+      <c r="M96" s="2">
         <v>302</v>
       </c>
-      <c r="K96" s="2">
+      <c r="N96" s="2">
         <v>983520</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>15</v>
       </c>
@@ -9959,22 +10706,29 @@
         <v>500</v>
       </c>
       <c r="E97" s="2">
+        <v>630981</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>500</v>
+      </c>
+      <c r="H97" s="2">
         <v>788751</v>
       </c>
-      <c r="G97" s="2">
-        <v>500</v>
-      </c>
-      <c r="H97" s="2">
+      <c r="J97" s="2">
+        <v>500</v>
+      </c>
+      <c r="K97" s="2">
         <v>1257144</v>
       </c>
-      <c r="J97" s="2">
+      <c r="M97" s="2">
         <v>352</v>
       </c>
-      <c r="K97" s="2">
+      <c r="N97" s="2">
         <v>1144742</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>15</v>
       </c>
@@ -9985,22 +10739,29 @@
         <v>500</v>
       </c>
       <c r="E98" s="2">
+        <v>630994</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2">
+        <v>500</v>
+      </c>
+      <c r="H98" s="2">
         <v>789986</v>
       </c>
-      <c r="G98" s="2">
-        <v>500</v>
-      </c>
-      <c r="H98" s="2">
+      <c r="J98" s="2">
+        <v>500</v>
+      </c>
+      <c r="K98" s="2">
         <v>1259148</v>
       </c>
-      <c r="J98" s="2">
+      <c r="M98" s="2">
         <v>388</v>
       </c>
-      <c r="K98" s="2">
+      <c r="N98" s="2">
         <v>1262559</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>15</v>
       </c>
@@ -10011,22 +10772,29 @@
         <v>500</v>
       </c>
       <c r="E99" s="2">
+        <v>630923</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>500</v>
+      </c>
+      <c r="H99" s="2">
         <v>791168</v>
       </c>
-      <c r="G99" s="2">
-        <v>500</v>
-      </c>
-      <c r="H99" s="2">
+      <c r="J99" s="2">
+        <v>500</v>
+      </c>
+      <c r="K99" s="2">
         <v>1260974</v>
       </c>
-      <c r="J99" s="2">
+      <c r="M99" s="2">
         <v>427</v>
       </c>
-      <c r="K99" s="2">
+      <c r="N99" s="2">
         <v>1387993</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>15</v>
       </c>
@@ -10037,22 +10805,29 @@
         <v>500</v>
       </c>
       <c r="E100" s="2">
+        <v>630979</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>500</v>
+      </c>
+      <c r="H100" s="2">
         <v>792687</v>
       </c>
-      <c r="G100" s="2">
-        <v>500</v>
-      </c>
-      <c r="H100" s="2">
+      <c r="J100" s="2">
+        <v>500</v>
+      </c>
+      <c r="K100" s="2">
         <v>1263509</v>
       </c>
-      <c r="J100" s="2">
+      <c r="M100" s="2">
         <v>458</v>
       </c>
-      <c r="K100" s="2">
+      <c r="N100" s="2">
         <v>1490364</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>15</v>
       </c>
@@ -10063,22 +10838,29 @@
         <v>500</v>
       </c>
       <c r="E101" s="2">
+        <v>630952</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>500</v>
+      </c>
+      <c r="H101" s="2">
         <v>792694</v>
       </c>
-      <c r="G101" s="2">
-        <v>500</v>
-      </c>
-      <c r="H101" s="2">
+      <c r="J101" s="2">
+        <v>500</v>
+      </c>
+      <c r="K101" s="2">
         <v>1263540</v>
       </c>
-      <c r="J101" s="2">
+      <c r="M101" s="2">
         <v>484</v>
       </c>
-      <c r="K101" s="2">
+      <c r="N101" s="2">
         <v>1574601</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>15</v>
       </c>
@@ -10089,22 +10871,29 @@
         <v>500</v>
       </c>
       <c r="E102" s="2">
+        <v>630951</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2">
+        <v>500</v>
+      </c>
+      <c r="H102" s="2">
         <v>792634</v>
       </c>
-      <c r="G102" s="2">
-        <v>500</v>
-      </c>
-      <c r="H102" s="2">
+      <c r="J102" s="2">
+        <v>500</v>
+      </c>
+      <c r="K102" s="2">
         <v>1263510</v>
       </c>
-      <c r="J102" s="2">
-        <v>500</v>
-      </c>
-      <c r="K102" s="2">
+      <c r="M102" s="2">
+        <v>500</v>
+      </c>
+      <c r="N102" s="2">
         <v>1632315</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>15</v>
       </c>
@@ -10115,22 +10904,29 @@
         <v>500</v>
       </c>
       <c r="E103" s="2">
+        <v>630885</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>500</v>
+      </c>
+      <c r="H103" s="2">
         <v>792607</v>
       </c>
-      <c r="G103" s="2">
-        <v>500</v>
-      </c>
-      <c r="H103" s="2">
+      <c r="J103" s="2">
+        <v>500</v>
+      </c>
+      <c r="K103" s="2">
         <v>1263446</v>
       </c>
-      <c r="J103" s="2">
+      <c r="M103" s="2">
         <v>179</v>
       </c>
-      <c r="K103" s="2">
+      <c r="N103" s="2">
         <v>582895</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>15</v>
       </c>
@@ -10141,22 +10937,29 @@
         <v>500</v>
       </c>
       <c r="E104" s="2">
+        <v>630816</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>500</v>
+      </c>
+      <c r="H104" s="2">
         <v>792395</v>
       </c>
-      <c r="G104" s="2">
-        <v>500</v>
-      </c>
-      <c r="H104" s="2">
+      <c r="J104" s="2">
+        <v>500</v>
+      </c>
+      <c r="K104" s="2">
         <v>1263080</v>
       </c>
-      <c r="J104" s="2">
-        <v>500</v>
-      </c>
-      <c r="K104" s="2">
+      <c r="M104" s="2">
+        <v>500</v>
+      </c>
+      <c r="N104" s="2">
         <v>1630103</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>15</v>
       </c>
@@ -10167,22 +10970,29 @@
         <v>500</v>
       </c>
       <c r="E105" s="2">
+        <v>630821</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>500</v>
+      </c>
+      <c r="H105" s="2">
         <v>747459</v>
       </c>
-      <c r="G105" s="2">
-        <v>500</v>
-      </c>
-      <c r="H105" s="2">
+      <c r="J105" s="2">
+        <v>500</v>
+      </c>
+      <c r="K105" s="2">
         <v>1191423</v>
       </c>
-      <c r="J105" s="2">
+      <c r="M105" s="2">
         <v>168</v>
       </c>
-      <c r="K105" s="2">
+      <c r="N105" s="2">
         <v>543648</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>15</v>
       </c>
@@ -10193,22 +11003,29 @@
         <v>500</v>
       </c>
       <c r="E106" s="2">
+        <v>630654</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2">
+        <v>500</v>
+      </c>
+      <c r="H106" s="2">
         <v>746615</v>
       </c>
-      <c r="G106" s="2">
-        <v>500</v>
-      </c>
-      <c r="H106" s="2">
+      <c r="J106" s="2">
+        <v>500</v>
+      </c>
+      <c r="K106" s="2">
         <v>1190130</v>
       </c>
-      <c r="J106" s="2">
-        <v>500</v>
-      </c>
-      <c r="K106" s="2">
+      <c r="M106" s="2">
+        <v>500</v>
+      </c>
+      <c r="N106" s="2">
         <v>1617710</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>15</v>
       </c>
@@ -10219,22 +11036,29 @@
         <v>500</v>
       </c>
       <c r="E107" s="2">
+        <v>630518</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>500</v>
+      </c>
+      <c r="H107" s="2">
         <v>741468</v>
       </c>
-      <c r="G107" s="2">
-        <v>500</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="J107" s="2">
+        <v>500</v>
+      </c>
+      <c r="K107" s="2">
         <v>1181497</v>
       </c>
-      <c r="J107" s="2">
+      <c r="M107" s="2">
         <v>261</v>
       </c>
-      <c r="K107" s="2">
+      <c r="N107" s="2">
         <v>842646</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>15</v>
       </c>
@@ -10245,22 +11069,29 @@
         <v>500</v>
       </c>
       <c r="E108" s="2">
+        <v>630396</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2">
+        <v>500</v>
+      </c>
+      <c r="H108" s="2">
         <v>741259</v>
       </c>
-      <c r="G108" s="2">
-        <v>500</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="J108" s="2">
+        <v>500</v>
+      </c>
+      <c r="K108" s="2">
         <v>1181192</v>
       </c>
-      <c r="J108" s="2">
-        <v>500</v>
-      </c>
-      <c r="K108" s="2">
+      <c r="M108" s="2">
+        <v>500</v>
+      </c>
+      <c r="N108" s="2">
         <v>1614208</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>15</v>
       </c>
@@ -10271,22 +11102,29 @@
         <v>500</v>
       </c>
       <c r="E109" s="2">
+        <v>594488</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2">
+        <v>500</v>
+      </c>
+      <c r="H109" s="2">
         <v>743414</v>
       </c>
-      <c r="G109" s="2">
-        <v>500</v>
-      </c>
-      <c r="H109" s="2">
+      <c r="J109" s="2">
+        <v>500</v>
+      </c>
+      <c r="K109" s="2">
         <v>1184849</v>
       </c>
-      <c r="J109" s="2">
-        <v>500</v>
-      </c>
-      <c r="K109" s="2">
+      <c r="M109" s="2">
+        <v>500</v>
+      </c>
+      <c r="N109" s="2">
         <v>1614301</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>15</v>
       </c>
@@ -10297,22 +11135,29 @@
         <v>500</v>
       </c>
       <c r="E110" s="2">
+        <v>590406</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2">
+        <v>500</v>
+      </c>
+      <c r="H110" s="2">
         <v>743070</v>
       </c>
-      <c r="G110" s="2">
-        <v>500</v>
-      </c>
-      <c r="H110" s="2">
+      <c r="J110" s="2">
+        <v>500</v>
+      </c>
+      <c r="K110" s="2">
         <v>1184386</v>
       </c>
-      <c r="J110" s="2">
+      <c r="M110" s="2">
         <v>311</v>
       </c>
-      <c r="K110" s="2">
+      <c r="N110" s="2">
         <v>1003541</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>15</v>
       </c>
@@ -10323,22 +11168,29 @@
         <v>500</v>
       </c>
       <c r="E111" s="2">
+        <v>589938</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2">
+        <v>500</v>
+      </c>
+      <c r="H111" s="2">
         <v>742634</v>
       </c>
-      <c r="G111" s="2">
-        <v>500</v>
-      </c>
-      <c r="H111" s="2">
+      <c r="J111" s="2">
+        <v>500</v>
+      </c>
+      <c r="K111" s="2">
         <v>1183704</v>
       </c>
-      <c r="J111" s="2">
-        <v>500</v>
-      </c>
-      <c r="K111" s="2">
+      <c r="M111" s="2">
+        <v>500</v>
+      </c>
+      <c r="N111" s="2">
         <v>1615330</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>15</v>
       </c>
@@ -10349,22 +11201,29 @@
         <v>500</v>
       </c>
       <c r="E112" s="2">
+        <v>591764</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2">
+        <v>500</v>
+      </c>
+      <c r="H112" s="2">
         <v>740234</v>
       </c>
-      <c r="G112" s="2">
-        <v>500</v>
-      </c>
-      <c r="H112" s="2">
+      <c r="J112" s="2">
+        <v>500</v>
+      </c>
+      <c r="K112" s="2">
         <v>1180233</v>
       </c>
-      <c r="J112" s="2">
-        <v>500</v>
-      </c>
-      <c r="K112" s="2">
+      <c r="M112" s="2">
+        <v>500</v>
+      </c>
+      <c r="N112" s="2">
         <v>1615153</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>15</v>
       </c>
@@ -10375,22 +11234,29 @@
         <v>500</v>
       </c>
       <c r="E113" s="2">
+        <v>592147</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2">
+        <v>500</v>
+      </c>
+      <c r="H113" s="2">
         <v>736504</v>
       </c>
-      <c r="G113" s="2">
-        <v>500</v>
-      </c>
-      <c r="H113" s="2">
+      <c r="J113" s="2">
+        <v>500</v>
+      </c>
+      <c r="K113" s="2">
         <v>1174252</v>
       </c>
-      <c r="J113" s="2">
-        <v>500</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="M113" s="2">
+        <v>500</v>
+      </c>
+      <c r="N113" s="2">
         <v>1614065</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>15</v>
       </c>
@@ -10401,22 +11267,29 @@
         <v>500</v>
       </c>
       <c r="E114" s="2">
+        <v>592470</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2">
+        <v>500</v>
+      </c>
+      <c r="H114" s="2">
         <v>735123</v>
       </c>
-      <c r="G114" s="2">
-        <v>500</v>
-      </c>
-      <c r="H114" s="2">
+      <c r="J114" s="2">
+        <v>500</v>
+      </c>
+      <c r="K114" s="2">
         <v>1172076</v>
       </c>
-      <c r="J114" s="2">
-        <v>500</v>
-      </c>
-      <c r="K114" s="2">
+      <c r="M114" s="2">
+        <v>500</v>
+      </c>
+      <c r="N114" s="2">
         <v>1615670</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>15</v>
       </c>
@@ -10427,22 +11300,29 @@
         <v>500</v>
       </c>
       <c r="E115" s="2">
+        <v>594017</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2">
+        <v>500</v>
+      </c>
+      <c r="H115" s="2">
         <v>732833</v>
       </c>
-      <c r="G115" s="2">
-        <v>500</v>
-      </c>
-      <c r="H115" s="2">
+      <c r="J115" s="2">
+        <v>500</v>
+      </c>
+      <c r="K115" s="2">
         <v>1168811</v>
       </c>
-      <c r="J115" s="2">
-        <v>500</v>
-      </c>
-      <c r="K115" s="2">
+      <c r="M115" s="2">
+        <v>500</v>
+      </c>
+      <c r="N115" s="2">
         <v>1614958</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>15</v>
       </c>
@@ -10453,22 +11333,29 @@
         <v>500</v>
       </c>
       <c r="E116" s="2">
+        <v>594305</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2">
+        <v>500</v>
+      </c>
+      <c r="H116" s="2">
         <v>731192</v>
       </c>
-      <c r="G116" s="2">
-        <v>500</v>
-      </c>
-      <c r="H116" s="2">
+      <c r="J116" s="2">
+        <v>500</v>
+      </c>
+      <c r="K116" s="2">
         <v>1165635</v>
       </c>
-      <c r="J116" s="2">
-        <v>500</v>
-      </c>
-      <c r="K116" s="2">
+      <c r="M116" s="2">
+        <v>500</v>
+      </c>
+      <c r="N116" s="2">
         <v>1613220</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>15</v>
       </c>
@@ -10479,22 +11366,29 @@
         <v>500</v>
       </c>
       <c r="E117" s="2">
+        <v>594698</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2">
+        <v>500</v>
+      </c>
+      <c r="H117" s="2">
         <v>729647</v>
       </c>
-      <c r="G117" s="2">
-        <v>500</v>
-      </c>
-      <c r="H117" s="2">
+      <c r="J117" s="2">
+        <v>500</v>
+      </c>
+      <c r="K117" s="2">
         <v>1163796</v>
       </c>
-      <c r="J117" s="2">
-        <v>500</v>
-      </c>
-      <c r="K117" s="2">
+      <c r="M117" s="2">
+        <v>500</v>
+      </c>
+      <c r="N117" s="2">
         <v>1613781</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>15</v>
       </c>
@@ -10505,22 +11399,29 @@
         <v>500</v>
       </c>
       <c r="E118" s="2">
+        <v>593488</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2">
+        <v>500</v>
+      </c>
+      <c r="H118" s="2">
         <v>728741</v>
       </c>
-      <c r="G118" s="2">
-        <v>500</v>
-      </c>
-      <c r="H118" s="2">
+      <c r="J118" s="2">
+        <v>500</v>
+      </c>
+      <c r="K118" s="2">
         <v>1161859</v>
       </c>
-      <c r="J118" s="2">
-        <v>500</v>
-      </c>
-      <c r="K118" s="2">
+      <c r="M118" s="2">
+        <v>500</v>
+      </c>
+      <c r="N118" s="2">
         <v>1615032</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>15</v>
       </c>
@@ -10531,22 +11432,29 @@
         <v>500</v>
       </c>
       <c r="E119" s="2">
+        <v>590166</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2">
+        <v>500</v>
+      </c>
+      <c r="H119" s="2">
         <v>727615</v>
       </c>
-      <c r="G119" s="2">
-        <v>500</v>
-      </c>
-      <c r="H119" s="2">
+      <c r="J119" s="2">
+        <v>500</v>
+      </c>
+      <c r="K119" s="2">
         <v>1160166</v>
       </c>
-      <c r="J119" s="2">
+      <c r="M119" s="2">
         <v>164</v>
       </c>
-      <c r="K119" s="2">
+      <c r="N119" s="2">
         <v>528984</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>15</v>
       </c>
@@ -10557,22 +11465,29 @@
         <v>500</v>
       </c>
       <c r="E120" s="2">
+        <v>587166</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2">
+        <v>500</v>
+      </c>
+      <c r="H120" s="2">
         <v>722192</v>
       </c>
-      <c r="G120" s="2">
-        <v>500</v>
-      </c>
-      <c r="H120" s="2">
+      <c r="J120" s="2">
+        <v>500</v>
+      </c>
+      <c r="K120" s="2">
         <v>1152528</v>
       </c>
-      <c r="J120" s="2">
+      <c r="M120" s="2">
         <v>5</v>
       </c>
-      <c r="K120" s="2">
+      <c r="N120" s="2">
         <v>14798</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>15</v>
       </c>
@@ -10580,25 +11495,32 @@
         <v>9344</v>
       </c>
       <c r="D121" s="2">
+        <v>500</v>
+      </c>
+      <c r="E121" s="2">
+        <v>584316</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2">
         <v>59</v>
       </c>
-      <c r="E121" s="2">
+      <c r="H121" s="2">
         <v>84518</v>
       </c>
-      <c r="G121" s="2">
+      <c r="J121" s="2">
         <v>65</v>
       </c>
-      <c r="H121" s="2">
+      <c r="K121" s="2">
         <v>148887</v>
       </c>
-      <c r="J121" s="2">
+      <c r="M121" s="2">
         <v>75</v>
       </c>
-      <c r="K121" s="2">
+      <c r="N121" s="2">
         <v>242208</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>15</v>
       </c>
@@ -10606,25 +11528,32 @@
         <v>9344</v>
       </c>
       <c r="D122" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E122" s="2">
-        <v>6086</v>
-      </c>
+        <v>581202</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2">
         <v>5</v>
       </c>
       <c r="H122" s="2">
+        <v>6086</v>
+      </c>
+      <c r="J122" s="2">
+        <v>5</v>
+      </c>
+      <c r="K122" s="2">
         <v>9687</v>
       </c>
-      <c r="J122" s="2">
+      <c r="M122" s="2">
         <v>44</v>
       </c>
-      <c r="K122" s="2">
+      <c r="N122" s="2">
         <v>142286</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>15</v>
       </c>
@@ -10632,25 +11561,32 @@
         <v>9344</v>
       </c>
       <c r="D123" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E123" s="2">
-        <v>6088</v>
-      </c>
+        <v>579389</v>
+      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="2">
         <v>5</v>
       </c>
       <c r="H123" s="2">
+        <v>6088</v>
+      </c>
+      <c r="J123" s="2">
+        <v>5</v>
+      </c>
+      <c r="K123" s="2">
         <v>9689</v>
       </c>
-      <c r="J123" s="2">
+      <c r="M123" s="2">
         <v>43</v>
       </c>
-      <c r="K123" s="2">
+      <c r="N123" s="2">
         <v>138945</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>15</v>
       </c>
@@ -10658,25 +11594,32 @@
         <v>9345</v>
       </c>
       <c r="D124" s="2">
-        <v>53</v>
+        <v>500</v>
       </c>
       <c r="E124" s="2">
-        <v>76751</v>
-      </c>
+        <v>574950</v>
+      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="2">
         <v>53</v>
       </c>
       <c r="H124" s="2">
+        <v>76751</v>
+      </c>
+      <c r="J124" s="2">
+        <v>53</v>
+      </c>
+      <c r="K124" s="2">
         <v>122321</v>
       </c>
-      <c r="J124" s="2">
+      <c r="M124" s="2">
         <v>45</v>
       </c>
-      <c r="K124" s="2">
+      <c r="N124" s="2">
         <v>145750</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>15</v>
       </c>
@@ -10684,25 +11627,32 @@
         <v>9347</v>
       </c>
       <c r="D125" s="2">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E125" s="2">
-        <v>89629</v>
-      </c>
+        <v>18107</v>
+      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2">
         <v>62</v>
       </c>
       <c r="H125" s="2">
+        <v>89629</v>
+      </c>
+      <c r="J125" s="2">
+        <v>62</v>
+      </c>
+      <c r="K125" s="2">
         <v>142741</v>
       </c>
-      <c r="J125" s="2">
+      <c r="M125" s="2">
         <v>47</v>
       </c>
-      <c r="K125" s="2">
+      <c r="N125" s="2">
         <v>151745</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>15</v>
       </c>
@@ -10710,25 +11660,32 @@
         <v>9350</v>
       </c>
       <c r="D126" s="2">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2">
-        <v>92521</v>
-      </c>
+        <v>5613</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="2">
         <v>64</v>
       </c>
       <c r="H126" s="2">
+        <v>92521</v>
+      </c>
+      <c r="J126" s="2">
+        <v>64</v>
+      </c>
+      <c r="K126" s="2">
         <v>147362</v>
       </c>
-      <c r="J126" s="2">
+      <c r="M126" s="2">
         <v>47</v>
       </c>
-      <c r="K126" s="2">
+      <c r="N126" s="2">
         <v>151834</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>15</v>
       </c>
@@ -10736,25 +11693,32 @@
         <v>9348</v>
       </c>
       <c r="D127" s="2">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E127" s="2">
-        <v>78015</v>
-      </c>
+        <v>4833</v>
+      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="2">
         <v>54</v>
       </c>
       <c r="H127" s="2">
+        <v>78015</v>
+      </c>
+      <c r="J127" s="2">
+        <v>54</v>
+      </c>
+      <c r="K127" s="2">
         <v>124205</v>
       </c>
-      <c r="J127" s="2">
+      <c r="M127" s="2">
         <v>56</v>
       </c>
-      <c r="K127" s="2">
+      <c r="N127" s="2">
         <v>180905</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>15</v>
       </c>
@@ -10762,25 +11726,32 @@
         <v>9348</v>
       </c>
       <c r="D128" s="2">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>62125</v>
-      </c>
+        <v>4849</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2">
         <v>43</v>
       </c>
       <c r="H128" s="2">
+        <v>62125</v>
+      </c>
+      <c r="J128" s="2">
+        <v>43</v>
+      </c>
+      <c r="K128" s="2">
         <v>98966</v>
       </c>
-      <c r="J128" s="2">
+      <c r="M128" s="2">
         <v>55</v>
       </c>
-      <c r="K128" s="2">
+      <c r="N128" s="2">
         <v>177749</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>15</v>
       </c>
@@ -10788,25 +11759,32 @@
         <v>9348</v>
       </c>
       <c r="D129" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E129" s="2">
-        <v>52065</v>
-      </c>
+        <v>69214</v>
+      </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="2">
         <v>36</v>
       </c>
       <c r="H129" s="2">
+        <v>52065</v>
+      </c>
+      <c r="J129" s="2">
+        <v>36</v>
+      </c>
+      <c r="K129" s="2">
         <v>82924</v>
       </c>
-      <c r="J129" s="2">
+      <c r="M129" s="2">
         <v>48</v>
       </c>
-      <c r="K129" s="2">
+      <c r="N129" s="2">
         <v>155128</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>15</v>
       </c>
@@ -10814,25 +11792,32 @@
         <v>9348</v>
       </c>
       <c r="D130" s="2">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E130" s="2">
-        <v>36122</v>
-      </c>
+        <v>73824</v>
+      </c>
+      <c r="F130" s="2"/>
       <c r="G130" s="2">
         <v>25</v>
       </c>
       <c r="H130" s="2">
+        <v>36122</v>
+      </c>
+      <c r="J130" s="2">
+        <v>25</v>
+      </c>
+      <c r="K130" s="2">
         <v>57568</v>
       </c>
-      <c r="J130" s="2">
+      <c r="M130" s="2">
         <v>39</v>
       </c>
-      <c r="K130" s="2">
+      <c r="N130" s="2">
         <v>126035</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>15</v>
       </c>
@@ -10840,25 +11825,32 @@
         <v>9350</v>
       </c>
       <c r="D131" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E131" s="2">
+        <v>63319</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2">
+        <v>15</v>
+      </c>
+      <c r="H131" s="2">
         <v>21587</v>
       </c>
-      <c r="G131" s="2">
-        <v>15</v>
-      </c>
-      <c r="H131" s="2">
+      <c r="J131" s="2">
+        <v>15</v>
+      </c>
+      <c r="K131" s="2">
         <v>34394</v>
       </c>
-      <c r="J131" s="2">
+      <c r="M131" s="2">
         <v>53</v>
       </c>
-      <c r="K131" s="2">
+      <c r="N131" s="2">
         <v>171330</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>15</v>
       </c>
@@ -10866,25 +11858,32 @@
         <v>9350</v>
       </c>
       <c r="D132" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E132" s="2">
+        <v>51930</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2">
+        <v>15</v>
+      </c>
+      <c r="H132" s="2">
         <v>21634</v>
       </c>
-      <c r="G132" s="2">
-        <v>15</v>
-      </c>
-      <c r="H132" s="2">
+      <c r="J132" s="2">
+        <v>15</v>
+      </c>
+      <c r="K132" s="2">
         <v>34464</v>
       </c>
-      <c r="J132" s="2">
+      <c r="M132" s="2">
         <v>47</v>
       </c>
-      <c r="K132" s="2">
+      <c r="N132" s="2">
         <v>151915</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>15</v>
       </c>
@@ -10892,25 +11891,32 @@
         <v>9349</v>
       </c>
       <c r="D133" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E133" s="2">
-        <v>26057</v>
-      </c>
+        <v>46382</v>
+      </c>
+      <c r="F133" s="2"/>
       <c r="G133" s="2">
         <v>18</v>
       </c>
       <c r="H133" s="2">
+        <v>26057</v>
+      </c>
+      <c r="J133" s="2">
+        <v>18</v>
+      </c>
+      <c r="K133" s="2">
         <v>41523</v>
       </c>
-      <c r="J133" s="2">
+      <c r="M133" s="2">
         <v>57</v>
       </c>
-      <c r="K133" s="2">
+      <c r="N133" s="2">
         <v>184781</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>15</v>
       </c>
@@ -10918,25 +11924,32 @@
         <v>9350</v>
       </c>
       <c r="D134" s="2">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>113819</v>
-      </c>
+        <v>32454</v>
+      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2">
         <v>78</v>
       </c>
       <c r="H134" s="2">
+        <v>113819</v>
+      </c>
+      <c r="J134" s="2">
+        <v>78</v>
+      </c>
+      <c r="K134" s="2">
         <v>181248</v>
       </c>
-      <c r="J134" s="2">
+      <c r="M134" s="2">
         <v>70</v>
       </c>
-      <c r="K134" s="2">
+      <c r="N134" s="2">
         <v>227392</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>15</v>
       </c>
@@ -10944,25 +11957,32 @@
         <v>9348</v>
       </c>
       <c r="D135" s="2">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E135" s="2">
-        <v>112403</v>
-      </c>
+        <v>21938</v>
+      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2">
         <v>77</v>
       </c>
       <c r="H135" s="2">
+        <v>112403</v>
+      </c>
+      <c r="J135" s="2">
+        <v>77</v>
+      </c>
+      <c r="K135" s="2">
         <v>179099</v>
       </c>
-      <c r="J135" s="2">
+      <c r="M135" s="2">
         <v>31</v>
       </c>
-      <c r="K135" s="2">
+      <c r="N135" s="2">
         <v>100638</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>15</v>
       </c>
@@ -10970,25 +11990,32 @@
         <v>9348</v>
       </c>
       <c r="D136" s="2">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2">
-        <v>101002</v>
-      </c>
+        <v>15044</v>
+      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="2">
         <v>69</v>
       </c>
       <c r="H136" s="2">
+        <v>101002</v>
+      </c>
+      <c r="J136" s="2">
+        <v>69</v>
+      </c>
+      <c r="K136" s="2">
         <v>160955</v>
       </c>
-      <c r="J136" s="2">
-        <v>500</v>
-      </c>
-      <c r="K136" s="2">
+      <c r="M136" s="2">
+        <v>500</v>
+      </c>
+      <c r="N136" s="2">
         <v>1616880</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>15</v>
       </c>
@@ -10996,25 +12023,32 @@
         <v>9347</v>
       </c>
       <c r="D137" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E137" s="2">
-        <v>89400</v>
-      </c>
+        <v>19737</v>
+      </c>
+      <c r="F137" s="2"/>
       <c r="G137" s="2">
         <v>61</v>
       </c>
       <c r="H137" s="2">
+        <v>89400</v>
+      </c>
+      <c r="J137" s="2">
+        <v>61</v>
+      </c>
+      <c r="K137" s="2">
         <v>142415</v>
       </c>
-      <c r="J137" s="2">
+      <c r="M137" s="2">
         <v>4</v>
       </c>
-      <c r="K137" s="2">
+      <c r="N137" s="2">
         <v>11388</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>15</v>
       </c>
@@ -11022,25 +12056,32 @@
         <v>9347</v>
       </c>
       <c r="D138" s="2">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E138" s="2">
-        <v>80700</v>
-      </c>
+        <v>26870</v>
+      </c>
+      <c r="F138" s="2"/>
       <c r="G138" s="2">
         <v>55</v>
       </c>
       <c r="H138" s="2">
+        <v>80700</v>
+      </c>
+      <c r="J138" s="2">
+        <v>55</v>
+      </c>
+      <c r="K138" s="2">
         <v>128569</v>
       </c>
-      <c r="J138" s="2">
+      <c r="M138" s="2">
         <v>4</v>
       </c>
-      <c r="K138" s="2">
+      <c r="N138" s="2">
         <v>11387</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>15</v>
       </c>
@@ -11048,25 +12089,32 @@
         <v>9347</v>
       </c>
       <c r="D139" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E139" s="2">
-        <v>76373</v>
-      </c>
+        <v>40816</v>
+      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="2">
         <v>52</v>
       </c>
       <c r="H139" s="2">
+        <v>76373</v>
+      </c>
+      <c r="J139" s="2">
+        <v>52</v>
+      </c>
+      <c r="K139" s="2">
         <v>121695</v>
       </c>
-      <c r="J139" s="2">
+      <c r="M139" s="2">
         <v>4</v>
       </c>
-      <c r="K139" s="2">
+      <c r="N139" s="2">
         <v>11300</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>15</v>
       </c>
@@ -11074,25 +12122,32 @@
         <v>9345</v>
       </c>
       <c r="D140" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E140" s="2">
-        <v>74682</v>
-      </c>
+        <v>73476</v>
+      </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="2">
         <v>51</v>
       </c>
       <c r="H140" s="2">
+        <v>74682</v>
+      </c>
+      <c r="J140" s="2">
+        <v>51</v>
+      </c>
+      <c r="K140" s="2">
         <v>118966</v>
       </c>
-      <c r="J140" s="2">
+      <c r="M140" s="2">
         <v>4</v>
       </c>
-      <c r="K140" s="2">
+      <c r="N140" s="2">
         <v>11307</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>15</v>
       </c>
@@ -11100,25 +12155,32 @@
         <v>9346</v>
       </c>
       <c r="D141" s="2">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E141" s="2">
-        <v>76109</v>
-      </c>
+        <v>52478</v>
+      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="2">
         <v>52</v>
       </c>
       <c r="H141" s="2">
+        <v>76109</v>
+      </c>
+      <c r="J141" s="2">
+        <v>52</v>
+      </c>
+      <c r="K141" s="2">
         <v>121256</v>
       </c>
-      <c r="J141" s="2">
+      <c r="M141" s="2">
         <v>39</v>
       </c>
-      <c r="K141" s="2">
+      <c r="N141" s="2">
         <v>125934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>15</v>
       </c>
@@ -11126,25 +12188,32 @@
         <v>9346</v>
       </c>
       <c r="D142" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E142" s="2">
-        <v>79003</v>
-      </c>
+        <v>52399</v>
+      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="2">
         <v>54</v>
       </c>
       <c r="H142" s="2">
+        <v>79003</v>
+      </c>
+      <c r="J142" s="2">
+        <v>54</v>
+      </c>
+      <c r="K142" s="2">
         <v>125853</v>
       </c>
-      <c r="J142" s="2">
+      <c r="M142" s="2">
         <v>48</v>
       </c>
-      <c r="K142" s="2">
+      <c r="N142" s="2">
         <v>155164</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>15</v>
       </c>
@@ -11152,25 +12221,32 @@
         <v>9347</v>
       </c>
       <c r="D143" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E143" s="2">
+        <v>53578</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2">
+        <v>15</v>
+      </c>
+      <c r="H143" s="2">
         <v>21345</v>
       </c>
-      <c r="G143" s="2">
-        <v>15</v>
-      </c>
-      <c r="H143" s="2">
+      <c r="J143" s="2">
+        <v>15</v>
+      </c>
+      <c r="K143" s="2">
         <v>34115</v>
       </c>
-      <c r="J143" s="2">
+      <c r="M143" s="2">
         <v>5</v>
       </c>
-      <c r="K143" s="2">
+      <c r="N143" s="2">
         <v>15672</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>15</v>
       </c>
@@ -11178,25 +12254,32 @@
         <v>9347</v>
       </c>
       <c r="D144" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E144" s="2">
-        <v>5042</v>
-      </c>
+        <v>55910</v>
+      </c>
+      <c r="F144" s="2"/>
       <c r="G144" s="2">
         <v>4</v>
       </c>
       <c r="H144" s="2">
+        <v>5042</v>
+      </c>
+      <c r="J144" s="2">
+        <v>4</v>
+      </c>
+      <c r="K144" s="2">
         <v>8027</v>
       </c>
-      <c r="J144" s="2">
+      <c r="M144" s="2">
         <v>33</v>
       </c>
-      <c r="K144" s="2">
+      <c r="N144" s="2">
         <v>106743</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>15</v>
       </c>
@@ -11204,25 +12287,32 @@
         <v>9347</v>
       </c>
       <c r="D145" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2">
-        <v>36367</v>
-      </c>
+        <v>58270</v>
+      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="2">
         <v>25</v>
       </c>
       <c r="H145" s="2">
+        <v>36367</v>
+      </c>
+      <c r="J145" s="2">
+        <v>25</v>
+      </c>
+      <c r="K145" s="2">
         <v>57941</v>
       </c>
-      <c r="J145" s="2">
+      <c r="M145" s="2">
         <v>44</v>
       </c>
-      <c r="K145" s="2">
+      <c r="N145" s="2">
         <v>142216</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>15</v>
       </c>
@@ -11230,25 +12320,32 @@
         <v>9348</v>
       </c>
       <c r="D146" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E146" s="2">
-        <v>49628</v>
-      </c>
+        <v>61782</v>
+      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="2">
         <v>34</v>
       </c>
       <c r="H146" s="2">
+        <v>49628</v>
+      </c>
+      <c r="J146" s="2">
+        <v>34</v>
+      </c>
+      <c r="K146" s="2">
         <v>79090</v>
       </c>
-      <c r="J146" s="2">
+      <c r="M146" s="2">
         <v>47</v>
       </c>
-      <c r="K146" s="2">
+      <c r="N146" s="2">
         <v>152071</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>15</v>
       </c>
@@ -11256,25 +12353,32 @@
         <v>9347</v>
       </c>
       <c r="D147" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E147" s="2">
-        <v>64224</v>
-      </c>
+        <v>43918</v>
+      </c>
+      <c r="F147" s="2"/>
       <c r="G147" s="2">
         <v>44</v>
       </c>
       <c r="H147" s="2">
+        <v>64224</v>
+      </c>
+      <c r="J147" s="2">
+        <v>44</v>
+      </c>
+      <c r="K147" s="2">
         <v>102330</v>
       </c>
-      <c r="J147" s="2">
+      <c r="M147" s="2">
         <v>12</v>
       </c>
-      <c r="K147" s="2">
+      <c r="N147" s="2">
         <v>38586</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>15</v>
       </c>
@@ -11282,25 +12386,32 @@
         <v>9347</v>
       </c>
       <c r="D148" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E148" s="2">
-        <v>30646</v>
-      </c>
+        <v>9172</v>
+      </c>
+      <c r="F148" s="2"/>
       <c r="G148" s="2">
         <v>21</v>
       </c>
       <c r="H148" s="2">
+        <v>30646</v>
+      </c>
+      <c r="J148" s="2">
+        <v>21</v>
+      </c>
+      <c r="K148" s="2">
         <v>48824</v>
       </c>
-      <c r="J148" s="2">
+      <c r="M148" s="2">
         <v>125</v>
       </c>
-      <c r="K148" s="2">
+      <c r="N148" s="2">
         <v>406643</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>15</v>
       </c>
@@ -11308,25 +12419,32 @@
         <v>9348</v>
       </c>
       <c r="D149" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E149" s="2">
-        <v>67055</v>
-      </c>
+        <v>47566</v>
+      </c>
+      <c r="F149" s="2"/>
       <c r="G149" s="2">
         <v>46</v>
       </c>
       <c r="H149" s="2">
+        <v>67055</v>
+      </c>
+      <c r="J149" s="2">
+        <v>46</v>
+      </c>
+      <c r="K149" s="2">
         <v>106789</v>
       </c>
-      <c r="J149" s="2">
+      <c r="M149" s="2">
         <v>122</v>
       </c>
-      <c r="K149" s="2">
+      <c r="N149" s="2">
         <v>394849</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>15</v>
       </c>
@@ -11334,25 +12452,32 @@
         <v>9348</v>
       </c>
       <c r="D150" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E150" s="2">
-        <v>77323</v>
-      </c>
+        <v>48154</v>
+      </c>
+      <c r="F150" s="2"/>
       <c r="G150" s="2">
         <v>53</v>
       </c>
       <c r="H150" s="2">
+        <v>77323</v>
+      </c>
+      <c r="J150" s="2">
+        <v>53</v>
+      </c>
+      <c r="K150" s="2">
         <v>123215</v>
       </c>
-      <c r="J150" s="2">
+      <c r="M150" s="2">
         <v>118</v>
       </c>
-      <c r="K150" s="2">
+      <c r="N150" s="2">
         <v>383289</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>15</v>
       </c>
@@ -11360,25 +12485,32 @@
         <v>9348</v>
       </c>
       <c r="D151" s="2">
+        <v>500</v>
+      </c>
+      <c r="E151" s="2">
+        <v>580944</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2">
         <v>42</v>
       </c>
-      <c r="E151" s="2">
+      <c r="H151" s="2">
         <v>61226</v>
       </c>
-      <c r="G151" s="2">
-        <v>500</v>
-      </c>
-      <c r="H151" s="2">
+      <c r="J151" s="2">
+        <v>500</v>
+      </c>
+      <c r="K151" s="2">
         <v>1165520</v>
       </c>
-      <c r="J151" s="2">
+      <c r="M151" s="2">
         <v>116</v>
       </c>
-      <c r="K151" s="2">
+      <c r="N151" s="2">
         <v>375718</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>15</v>
       </c>
@@ -11389,22 +12521,29 @@
         <v>500</v>
       </c>
       <c r="E152" s="2">
+        <v>581717</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2">
+        <v>500</v>
+      </c>
+      <c r="H152" s="2">
         <v>731454</v>
       </c>
-      <c r="G152" s="2">
-        <v>500</v>
-      </c>
-      <c r="H152" s="2">
+      <c r="J152" s="2">
+        <v>500</v>
+      </c>
+      <c r="K152" s="2">
         <v>1162919</v>
       </c>
-      <c r="J152" s="2">
+      <c r="M152" s="2">
         <v>116</v>
       </c>
-      <c r="K152" s="2">
+      <c r="N152" s="2">
         <v>375840</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>15</v>
       </c>
@@ -11415,22 +12554,29 @@
         <v>500</v>
       </c>
       <c r="E153" s="2">
+        <v>592661</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2">
+        <v>500</v>
+      </c>
+      <c r="H153" s="2">
         <v>742078</v>
       </c>
-      <c r="G153" s="2">
-        <v>500</v>
-      </c>
-      <c r="H153" s="2">
+      <c r="J153" s="2">
+        <v>500</v>
+      </c>
+      <c r="K153" s="2">
         <v>1160125</v>
       </c>
-      <c r="J153" s="2">
+      <c r="M153" s="2">
         <v>124</v>
       </c>
-      <c r="K153" s="2">
+      <c r="N153" s="2">
         <v>402213</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>15</v>
       </c>
@@ -11441,22 +12587,29 @@
         <v>500</v>
       </c>
       <c r="E154" s="2">
+        <v>618874</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2">
+        <v>500</v>
+      </c>
+      <c r="H154" s="2">
         <v>751794</v>
       </c>
-      <c r="G154" s="2">
-        <v>500</v>
-      </c>
-      <c r="H154" s="2">
+      <c r="J154" s="2">
+        <v>500</v>
+      </c>
+      <c r="K154" s="2">
         <v>1206673</v>
       </c>
-      <c r="J154" s="2">
+      <c r="M154" s="2">
         <v>383</v>
       </c>
-      <c r="K154" s="2">
+      <c r="N154" s="2">
         <v>1246198</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>15</v>
       </c>
@@ -11467,22 +12620,29 @@
         <v>500</v>
       </c>
       <c r="E155" s="2">
+        <v>622147</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2">
+        <v>500</v>
+      </c>
+      <c r="H155" s="2">
         <v>780955</v>
       </c>
-      <c r="G155" s="2">
-        <v>500</v>
-      </c>
-      <c r="H155" s="2">
+      <c r="J155" s="2">
+        <v>500</v>
+      </c>
+      <c r="K155" s="2">
         <v>1244738</v>
       </c>
-      <c r="J155" s="2">
+      <c r="M155" s="2">
         <v>302</v>
       </c>
-      <c r="K155" s="2">
+      <c r="N155" s="2">
         <v>985135</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>15</v>
       </c>
@@ -11493,22 +12653,29 @@
         <v>500</v>
       </c>
       <c r="E156" s="2">
+        <v>623819</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2">
+        <v>500</v>
+      </c>
+      <c r="H156" s="2">
         <v>782306</v>
       </c>
-      <c r="G156" s="2">
-        <v>500</v>
-      </c>
-      <c r="H156" s="2">
+      <c r="J156" s="2">
+        <v>500</v>
+      </c>
+      <c r="K156" s="2">
         <v>1246795</v>
       </c>
-      <c r="J156" s="2">
+      <c r="M156" s="2">
         <v>4</v>
       </c>
-      <c r="K156" s="2">
+      <c r="N156" s="2">
         <v>12473</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>15</v>
       </c>
@@ -11519,22 +12686,29 @@
         <v>500</v>
       </c>
       <c r="E157" s="2">
+        <v>625229</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2">
+        <v>500</v>
+      </c>
+      <c r="H157" s="2">
         <v>783568</v>
       </c>
-      <c r="G157" s="2">
-        <v>500</v>
-      </c>
-      <c r="H157" s="2">
+      <c r="J157" s="2">
+        <v>500</v>
+      </c>
+      <c r="K157" s="2">
         <v>1248817</v>
       </c>
-      <c r="J157" s="2">
+      <c r="M157" s="2">
         <v>259</v>
       </c>
-      <c r="K157" s="2">
+      <c r="N157" s="2">
         <v>847985</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>15</v>
       </c>
@@ -11545,22 +12719,29 @@
         <v>500</v>
       </c>
       <c r="E158" s="2">
+        <v>626789</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2">
+        <v>500</v>
+      </c>
+      <c r="H158" s="2">
         <v>784794</v>
       </c>
-      <c r="G158" s="2">
-        <v>500</v>
-      </c>
-      <c r="H158" s="2">
+      <c r="J158" s="2">
+        <v>500</v>
+      </c>
+      <c r="K158" s="2">
         <v>1250978</v>
       </c>
-      <c r="J158" s="2">
+      <c r="M158" s="2">
         <v>247</v>
       </c>
-      <c r="K158" s="2">
+      <c r="N158" s="2">
         <v>808121</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>15</v>
       </c>
@@ -11571,22 +12752,29 @@
         <v>500</v>
       </c>
       <c r="E159" s="2">
+        <v>628721</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2">
+        <v>500</v>
+      </c>
+      <c r="H159" s="2">
         <v>786038</v>
       </c>
-      <c r="G159" s="2">
-        <v>500</v>
-      </c>
-      <c r="H159" s="2">
+      <c r="J159" s="2">
+        <v>500</v>
+      </c>
+      <c r="K159" s="2">
         <v>1252843</v>
       </c>
-      <c r="J159" s="2">
+      <c r="M159" s="2">
         <v>280</v>
       </c>
-      <c r="K159" s="2">
+      <c r="N159" s="2">
         <v>915767</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>15</v>
       </c>
@@ -11597,22 +12785,29 @@
         <v>500</v>
       </c>
       <c r="E160" s="2">
+        <v>628714</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2">
+        <v>500</v>
+      </c>
+      <c r="H160" s="2">
         <v>787387</v>
       </c>
-      <c r="G160" s="2">
-        <v>500</v>
-      </c>
-      <c r="H160" s="2">
+      <c r="J160" s="2">
+        <v>500</v>
+      </c>
+      <c r="K160" s="2">
         <v>1254933</v>
       </c>
-      <c r="J160" s="2">
+      <c r="M160" s="2">
         <v>327</v>
       </c>
-      <c r="K160" s="2">
+      <c r="N160" s="2">
         <v>1069023</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>15</v>
       </c>
@@ -11623,22 +12818,29 @@
         <v>500</v>
       </c>
       <c r="E161" s="2">
+        <v>628766</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2">
+        <v>500</v>
+      </c>
+      <c r="H161" s="2">
         <v>788652</v>
       </c>
-      <c r="G161" s="2">
-        <v>500</v>
-      </c>
-      <c r="H161" s="2">
+      <c r="J161" s="2">
+        <v>500</v>
+      </c>
+      <c r="K161" s="2">
         <v>1257053</v>
       </c>
-      <c r="J161" s="2">
+      <c r="M161" s="2">
         <v>363</v>
       </c>
-      <c r="K161" s="2">
+      <c r="N161" s="2">
         <v>1186858</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>15</v>
       </c>
@@ -11649,22 +12851,29 @@
         <v>500</v>
       </c>
       <c r="E162" s="2">
+        <v>628800</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2">
+        <v>500</v>
+      </c>
+      <c r="H162" s="2">
         <v>789970</v>
       </c>
-      <c r="G162" s="2">
-        <v>500</v>
-      </c>
-      <c r="H162" s="2">
+      <c r="J162" s="2">
+        <v>500</v>
+      </c>
+      <c r="K162" s="2">
         <v>1259234</v>
       </c>
-      <c r="J162" s="2">
+      <c r="M162" s="2">
         <v>389</v>
       </c>
-      <c r="K162" s="2">
+      <c r="N162" s="2">
         <v>1271091</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>15</v>
       </c>
@@ -11675,22 +12884,29 @@
         <v>500</v>
       </c>
       <c r="E163" s="2">
+        <v>628932</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2">
+        <v>500</v>
+      </c>
+      <c r="H163" s="2">
         <v>790142</v>
       </c>
-      <c r="G163" s="2">
-        <v>500</v>
-      </c>
-      <c r="H163" s="2">
+      <c r="J163" s="2">
+        <v>500</v>
+      </c>
+      <c r="K163" s="2">
         <v>1259379</v>
       </c>
-      <c r="J163" s="2">
+      <c r="M163" s="2">
         <v>432</v>
       </c>
-      <c r="K163" s="2">
+      <c r="N163" s="2">
         <v>1411659</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>15</v>
       </c>
@@ -11701,22 +12917,29 @@
         <v>500</v>
       </c>
       <c r="E164" s="2">
+        <v>628963</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2">
+        <v>500</v>
+      </c>
+      <c r="H164" s="2">
         <v>790133</v>
       </c>
-      <c r="G164" s="2">
-        <v>500</v>
-      </c>
-      <c r="H164" s="2">
+      <c r="J164" s="2">
+        <v>500</v>
+      </c>
+      <c r="K164" s="2">
         <v>1259362</v>
       </c>
-      <c r="J164" s="2">
-        <v>500</v>
-      </c>
-      <c r="K164" s="2">
+      <c r="M164" s="2">
+        <v>500</v>
+      </c>
+      <c r="N164" s="2">
         <v>1635383</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>15</v>
       </c>
@@ -11727,22 +12950,29 @@
         <v>500</v>
       </c>
       <c r="E165" s="2">
+        <v>628952</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2">
+        <v>500</v>
+      </c>
+      <c r="H165" s="2">
         <v>790178</v>
       </c>
-      <c r="G165" s="2">
-        <v>500</v>
-      </c>
-      <c r="H165" s="2">
+      <c r="J165" s="2">
+        <v>500</v>
+      </c>
+      <c r="K165" s="2">
         <v>1259459</v>
       </c>
-      <c r="J165" s="2">
-        <v>500</v>
-      </c>
-      <c r="K165" s="2">
+      <c r="M165" s="2">
+        <v>500</v>
+      </c>
+      <c r="N165" s="2">
         <v>1634140</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>15</v>
       </c>
@@ -11753,22 +12983,29 @@
         <v>500</v>
       </c>
       <c r="E166" s="2">
+        <v>628945</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2">
+        <v>500</v>
+      </c>
+      <c r="H166" s="2">
         <v>790231</v>
       </c>
-      <c r="G166" s="2">
-        <v>500</v>
-      </c>
-      <c r="H166" s="2">
+      <c r="J166" s="2">
+        <v>500</v>
+      </c>
+      <c r="K166" s="2">
         <v>1259325</v>
       </c>
-      <c r="J166" s="2">
-        <v>500</v>
-      </c>
-      <c r="K166" s="2">
+      <c r="M166" s="2">
+        <v>500</v>
+      </c>
+      <c r="N166" s="2">
         <v>1629890</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>15</v>
       </c>
@@ -11779,22 +13016,29 @@
         <v>500</v>
       </c>
       <c r="E167" s="2">
+        <v>628933</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2">
+        <v>500</v>
+      </c>
+      <c r="H167" s="2">
         <v>789937</v>
       </c>
-      <c r="G167" s="2">
-        <v>500</v>
-      </c>
-      <c r="H167" s="2">
+      <c r="J167" s="2">
+        <v>500</v>
+      </c>
+      <c r="K167" s="2">
         <v>1187581</v>
       </c>
-      <c r="J167" s="2">
-        <v>500</v>
-      </c>
-      <c r="K167" s="2">
+      <c r="M167" s="2">
+        <v>500</v>
+      </c>
+      <c r="N167" s="2">
         <v>1624276</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>15</v>
       </c>
@@ -11805,22 +13049,29 @@
         <v>500</v>
       </c>
       <c r="E168" s="2">
+        <v>629137</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2">
+        <v>500</v>
+      </c>
+      <c r="H168" s="2">
         <v>744498</v>
       </c>
-      <c r="G168" s="2">
-        <v>500</v>
-      </c>
-      <c r="H168" s="2">
+      <c r="J168" s="2">
+        <v>500</v>
+      </c>
+      <c r="K168" s="2">
         <v>1186294</v>
       </c>
-      <c r="J168" s="2">
-        <v>500</v>
-      </c>
-      <c r="K168" s="2">
+      <c r="M168" s="2">
+        <v>500</v>
+      </c>
+      <c r="N168" s="2">
         <v>1618561</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>15</v>
       </c>
@@ -11831,22 +13082,29 @@
         <v>500</v>
       </c>
       <c r="E169" s="2">
+        <v>629109</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2">
+        <v>500</v>
+      </c>
+      <c r="H169" s="2">
         <v>741858</v>
       </c>
-      <c r="G169" s="2">
-        <v>500</v>
-      </c>
-      <c r="H169" s="2">
+      <c r="J169" s="2">
+        <v>500</v>
+      </c>
+      <c r="K169" s="2">
         <v>1182039</v>
       </c>
-      <c r="J169" s="2">
-        <v>500</v>
-      </c>
-      <c r="K169" s="2">
+      <c r="M169" s="2">
+        <v>500</v>
+      </c>
+      <c r="N169" s="2">
         <v>1618074</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>15</v>
       </c>
@@ -11857,22 +13115,29 @@
         <v>500</v>
       </c>
       <c r="E170" s="2">
+        <v>629085</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2">
+        <v>500</v>
+      </c>
+      <c r="H170" s="2">
         <v>741853</v>
       </c>
-      <c r="G170" s="2">
-        <v>500</v>
-      </c>
-      <c r="H170" s="2">
+      <c r="J170" s="2">
+        <v>500</v>
+      </c>
+      <c r="K170" s="2">
         <v>1182207</v>
       </c>
-      <c r="J170" s="2">
-        <v>500</v>
-      </c>
-      <c r="K170" s="2">
+      <c r="M170" s="2">
+        <v>500</v>
+      </c>
+      <c r="N170" s="2">
         <v>1617924</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>15</v>
       </c>
@@ -11883,22 +13148,29 @@
         <v>500</v>
       </c>
       <c r="E171" s="2">
+        <v>628711</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2">
+        <v>500</v>
+      </c>
+      <c r="H171" s="2">
         <v>744071</v>
       </c>
-      <c r="G171" s="2">
-        <v>500</v>
-      </c>
-      <c r="H171" s="2">
+      <c r="J171" s="2">
+        <v>500</v>
+      </c>
+      <c r="K171" s="2">
         <v>1186038</v>
       </c>
-      <c r="J171" s="2">
-        <v>500</v>
-      </c>
-      <c r="K171" s="2">
+      <c r="M171" s="2">
+        <v>500</v>
+      </c>
+      <c r="N171" s="2">
         <v>1616820</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>15</v>
       </c>
@@ -11909,22 +13181,29 @@
         <v>500</v>
       </c>
       <c r="E172" s="2">
+        <v>592533</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2">
+        <v>500</v>
+      </c>
+      <c r="H172" s="2">
         <v>743572</v>
       </c>
-      <c r="G172" s="2">
-        <v>500</v>
-      </c>
-      <c r="H172" s="2">
+      <c r="J172" s="2">
+        <v>500</v>
+      </c>
+      <c r="K172" s="2">
         <v>1184969</v>
       </c>
-      <c r="J172" s="2">
-        <v>500</v>
-      </c>
-      <c r="K172" s="2">
+      <c r="M172" s="2">
+        <v>500</v>
+      </c>
+      <c r="N172" s="2">
         <v>1618441</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>15</v>
       </c>
@@ -11935,22 +13214,29 @@
         <v>500</v>
       </c>
       <c r="E173" s="2">
+        <v>590580</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2">
+        <v>500</v>
+      </c>
+      <c r="H173" s="2">
         <v>743545</v>
       </c>
-      <c r="G173" s="2">
-        <v>500</v>
-      </c>
-      <c r="H173" s="2">
+      <c r="J173" s="2">
+        <v>500</v>
+      </c>
+      <c r="K173" s="2">
         <v>1184822</v>
       </c>
-      <c r="J173" s="2">
-        <v>500</v>
-      </c>
-      <c r="K173" s="2">
+      <c r="M173" s="2">
+        <v>500</v>
+      </c>
+      <c r="N173" s="2">
         <v>1618860</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>15</v>
       </c>
@@ -11961,22 +13247,29 @@
         <v>500</v>
       </c>
       <c r="E174" s="2">
+        <v>592303</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2">
+        <v>500</v>
+      </c>
+      <c r="H174" s="2">
         <v>741241</v>
       </c>
-      <c r="G174" s="2">
-        <v>500</v>
-      </c>
-      <c r="H174" s="2">
+      <c r="J174" s="2">
+        <v>500</v>
+      </c>
+      <c r="K174" s="2">
         <v>1179760</v>
       </c>
-      <c r="J174" s="2">
-        <v>500</v>
-      </c>
-      <c r="K174" s="2">
+      <c r="M174" s="2">
+        <v>500</v>
+      </c>
+      <c r="N174" s="2">
         <v>1618503</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>15</v>
       </c>
@@ -11987,22 +13280,29 @@
         <v>500</v>
       </c>
       <c r="E175" s="2">
+        <v>592289</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2">
+        <v>500</v>
+      </c>
+      <c r="H175" s="2">
         <v>737694</v>
       </c>
-      <c r="G175" s="2">
-        <v>500</v>
-      </c>
-      <c r="H175" s="2">
+      <c r="J175" s="2">
+        <v>500</v>
+      </c>
+      <c r="K175" s="2">
         <v>1174650</v>
       </c>
-      <c r="J175" s="2">
-        <v>500</v>
-      </c>
-      <c r="K175" s="2">
+      <c r="M175" s="2">
+        <v>500</v>
+      </c>
+      <c r="N175" s="2">
         <v>1617675</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>15</v>
       </c>
@@ -12013,22 +13313,29 @@
         <v>500</v>
       </c>
       <c r="E176" s="2">
+        <v>593502</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2">
+        <v>500</v>
+      </c>
+      <c r="H176" s="2">
         <v>738147</v>
       </c>
-      <c r="G176" s="2">
-        <v>500</v>
-      </c>
-      <c r="H176" s="2">
+      <c r="J176" s="2">
+        <v>500</v>
+      </c>
+      <c r="K176" s="2">
         <v>1176318</v>
       </c>
-      <c r="J176" s="2">
-        <v>500</v>
-      </c>
-      <c r="K176" s="2">
+      <c r="M176" s="2">
+        <v>500</v>
+      </c>
+      <c r="N176" s="2">
         <v>1623248</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>15</v>
       </c>
@@ -12039,22 +13346,29 @@
         <v>500</v>
       </c>
       <c r="E177" s="2">
+        <v>594589</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2">
+        <v>500</v>
+      </c>
+      <c r="H177" s="2">
         <v>735918</v>
       </c>
-      <c r="G177" s="2">
-        <v>500</v>
-      </c>
-      <c r="H177" s="2">
+      <c r="J177" s="2">
+        <v>500</v>
+      </c>
+      <c r="K177" s="2">
         <v>1172670</v>
       </c>
-      <c r="J177" s="2">
-        <v>500</v>
-      </c>
-      <c r="K177" s="2">
+      <c r="M177" s="2">
+        <v>500</v>
+      </c>
+      <c r="N177" s="2">
         <v>1622327</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>15</v>
       </c>
@@ -12065,22 +13379,29 @@
         <v>500</v>
       </c>
       <c r="E178" s="2">
+        <v>597202</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2">
+        <v>500</v>
+      </c>
+      <c r="H178" s="2">
         <v>734462</v>
       </c>
-      <c r="G178" s="2">
-        <v>500</v>
-      </c>
-      <c r="H178" s="2">
+      <c r="J178" s="2">
+        <v>500</v>
+      </c>
+      <c r="K178" s="2">
         <v>1171359</v>
       </c>
-      <c r="J178" s="2">
-        <v>500</v>
-      </c>
-      <c r="K178" s="2">
+      <c r="M178" s="2">
+        <v>500</v>
+      </c>
+      <c r="N178" s="2">
         <v>1621445</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>15</v>
       </c>
@@ -12091,22 +13412,29 @@
         <v>500</v>
       </c>
       <c r="E179" s="2">
+        <v>597043</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2">
+        <v>500</v>
+      </c>
+      <c r="H179" s="2">
         <v>733626</v>
       </c>
-      <c r="G179" s="2">
-        <v>500</v>
-      </c>
-      <c r="H179" s="2">
+      <c r="J179" s="2">
+        <v>500</v>
+      </c>
+      <c r="K179" s="2">
         <v>1169536</v>
       </c>
-      <c r="J179" s="2">
-        <v>500</v>
-      </c>
-      <c r="K179" s="2">
+      <c r="M179" s="2">
+        <v>500</v>
+      </c>
+      <c r="N179" s="2">
         <v>1620134</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>15</v>
       </c>
@@ -12117,22 +13445,29 @@
         <v>500</v>
       </c>
       <c r="E180" s="2">
+        <v>596719</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2">
+        <v>500</v>
+      </c>
+      <c r="H180" s="2">
         <v>732459</v>
       </c>
-      <c r="G180" s="2">
-        <v>500</v>
-      </c>
-      <c r="H180" s="2">
+      <c r="J180" s="2">
+        <v>500</v>
+      </c>
+      <c r="K180" s="2">
         <v>1167624</v>
       </c>
-      <c r="J180" s="2">
-        <v>500</v>
-      </c>
-      <c r="K180" s="2">
+      <c r="M180" s="2">
+        <v>500</v>
+      </c>
+      <c r="N180" s="2">
         <v>1618363</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>15</v>
       </c>
@@ -12143,22 +13478,29 @@
         <v>500</v>
       </c>
       <c r="E181" s="2">
+        <v>594028</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2">
+        <v>500</v>
+      </c>
+      <c r="H181" s="2">
         <v>731321</v>
       </c>
-      <c r="G181" s="2">
-        <v>500</v>
-      </c>
-      <c r="H181" s="2">
+      <c r="J181" s="2">
+        <v>500</v>
+      </c>
+      <c r="K181" s="2">
         <v>1164426</v>
       </c>
-      <c r="J181" s="2">
+      <c r="M181" s="2">
         <v>219</v>
       </c>
-      <c r="K181" s="2">
+      <c r="N181" s="2">
         <v>707925</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>15</v>
       </c>
@@ -12169,22 +13511,29 @@
         <v>500</v>
       </c>
       <c r="E182" s="2">
+        <v>590842</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2">
+        <v>500</v>
+      </c>
+      <c r="H182" s="2">
         <v>726011</v>
       </c>
-      <c r="G182" s="2">
+      <c r="J182" s="2">
         <v>454</v>
       </c>
-      <c r="H182" s="2">
+      <c r="K182" s="2">
         <v>1042861</v>
       </c>
-      <c r="J182" s="2">
+      <c r="M182" s="2">
         <v>5</v>
       </c>
-      <c r="K182" s="2">
+      <c r="N182" s="2">
         <v>14883</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>15</v>
       </c>
@@ -12192,25 +13541,32 @@
         <v>9345</v>
       </c>
       <c r="D183" s="2">
+        <v>500</v>
+      </c>
+      <c r="E183" s="2">
+        <v>587656</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2">
         <v>79</v>
       </c>
-      <c r="E183" s="2">
+      <c r="H183" s="2">
         <v>113541</v>
       </c>
-      <c r="G183" s="2">
+      <c r="J183" s="2">
         <v>5</v>
       </c>
-      <c r="H183" s="2">
+      <c r="K183" s="2">
         <v>9666</v>
       </c>
-      <c r="J183" s="2">
+      <c r="M183" s="2">
         <v>75</v>
       </c>
-      <c r="K183" s="2">
+      <c r="N183" s="2">
         <v>242652</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>15</v>
       </c>
@@ -12218,25 +13574,32 @@
         <v>9343</v>
       </c>
       <c r="D184" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E184" s="2">
-        <v>6073</v>
-      </c>
+        <v>584186</v>
+      </c>
+      <c r="F184" s="2"/>
       <c r="G184" s="2">
         <v>5</v>
       </c>
       <c r="H184" s="2">
+        <v>6073</v>
+      </c>
+      <c r="J184" s="2">
+        <v>5</v>
+      </c>
+      <c r="K184" s="2">
         <v>9667</v>
       </c>
-      <c r="J184" s="2">
+      <c r="M184" s="2">
         <v>91</v>
       </c>
-      <c r="K184" s="2">
+      <c r="N184" s="2">
         <v>294592</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>15</v>
       </c>
@@ -12244,25 +13607,32 @@
         <v>9344</v>
       </c>
       <c r="D185" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E185" s="2">
-        <v>6092</v>
-      </c>
+        <v>583094</v>
+      </c>
+      <c r="F185" s="2"/>
       <c r="G185" s="2">
         <v>5</v>
       </c>
       <c r="H185" s="2">
+        <v>6092</v>
+      </c>
+      <c r="J185" s="2">
+        <v>5</v>
+      </c>
+      <c r="K185" s="2">
         <v>9696</v>
       </c>
-      <c r="J185" s="2">
+      <c r="M185" s="2">
         <v>45</v>
       </c>
-      <c r="K185" s="2">
+      <c r="N185" s="2">
         <v>144697</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>15</v>
       </c>
@@ -12270,25 +13640,32 @@
         <v>9344</v>
       </c>
       <c r="D186" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E186" s="2">
-        <v>6095</v>
-      </c>
+        <v>580878</v>
+      </c>
+      <c r="F186" s="2"/>
       <c r="G186" s="2">
         <v>5</v>
       </c>
       <c r="H186" s="2">
+        <v>6095</v>
+      </c>
+      <c r="J186" s="2">
+        <v>5</v>
+      </c>
+      <c r="K186" s="2">
         <v>9704</v>
       </c>
-      <c r="J186" s="2">
+      <c r="M186" s="2">
         <v>28</v>
       </c>
-      <c r="K186" s="2">
+      <c r="N186" s="2">
         <v>89536</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>15</v>
       </c>
@@ -12296,25 +13673,32 @@
         <v>9344</v>
       </c>
       <c r="D187" s="2">
+        <v>195</v>
+      </c>
+      <c r="E187" s="2">
+        <v>225310</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2">
         <v>56</v>
       </c>
-      <c r="E187" s="2">
+      <c r="H187" s="2">
         <v>81103</v>
       </c>
-      <c r="G187" s="2">
+      <c r="J187" s="2">
         <v>59</v>
       </c>
-      <c r="H187" s="2">
+      <c r="K187" s="2">
         <v>136766</v>
       </c>
-      <c r="J187" s="2">
+      <c r="M187" s="2">
         <v>52</v>
       </c>
-      <c r="K187" s="2">
+      <c r="N187" s="2">
         <v>168682</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>15</v>
       </c>
@@ -12322,25 +13706,32 @@
         <v>9343</v>
       </c>
       <c r="D188" s="2">
+        <v>6</v>
+      </c>
+      <c r="E188" s="2">
+        <v>5615</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2">
         <v>63</v>
       </c>
-      <c r="E188" s="2">
+      <c r="H188" s="2">
         <v>91229</v>
       </c>
-      <c r="G188" s="2">
+      <c r="J188" s="2">
         <v>64</v>
       </c>
-      <c r="H188" s="2">
+      <c r="K188" s="2">
         <v>147683</v>
       </c>
-      <c r="J188" s="2">
+      <c r="M188" s="2">
         <v>45</v>
       </c>
-      <c r="K188" s="2">
+      <c r="N188" s="2">
         <v>145734</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>15</v>
       </c>
@@ -12348,25 +13739,32 @@
         <v>9343</v>
       </c>
       <c r="D189" s="2">
+        <v>6</v>
+      </c>
+      <c r="E189" s="2">
+        <v>5615</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2">
         <v>65</v>
       </c>
-      <c r="E189" s="2">
+      <c r="H189" s="2">
         <v>94268</v>
       </c>
-      <c r="G189" s="2">
+      <c r="J189" s="2">
         <v>66</v>
       </c>
-      <c r="H189" s="2">
+      <c r="K189" s="2">
         <v>152388</v>
       </c>
-      <c r="J189" s="2">
+      <c r="M189" s="2">
         <v>56</v>
       </c>
-      <c r="K189" s="2">
+      <c r="N189" s="2">
         <v>181531</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>15</v>
       </c>
@@ -12374,25 +13772,32 @@
         <v>9344</v>
       </c>
       <c r="D190" s="2">
+        <v>5</v>
+      </c>
+      <c r="E190" s="2">
+        <v>4836</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2">
         <v>53</v>
       </c>
-      <c r="E190" s="2">
+      <c r="H190" s="2">
         <v>76848</v>
       </c>
-      <c r="G190" s="2">
+      <c r="J190" s="2">
         <v>52</v>
       </c>
-      <c r="H190" s="2">
+      <c r="K190" s="2">
         <v>120095</v>
       </c>
-      <c r="J190" s="2">
+      <c r="M190" s="2">
         <v>54</v>
       </c>
-      <c r="K190" s="2">
+      <c r="N190" s="2">
         <v>174857</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>15</v>
       </c>
@@ -12400,25 +13805,32 @@
         <v>9343</v>
       </c>
       <c r="D191" s="2">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E191" s="2">
-        <v>60919</v>
-      </c>
+        <v>4854</v>
+      </c>
+      <c r="F191" s="2"/>
       <c r="G191" s="2">
         <v>42</v>
       </c>
       <c r="H191" s="2">
+        <v>60919</v>
+      </c>
+      <c r="J191" s="2">
+        <v>42</v>
+      </c>
+      <c r="K191" s="2">
         <v>97057</v>
       </c>
-      <c r="J191" s="2">
+      <c r="M191" s="2">
         <v>54</v>
       </c>
-      <c r="K191" s="2">
+      <c r="N191" s="2">
         <v>174891</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>15</v>
       </c>
@@ -12426,73 +13838,90 @@
         <v>9343</v>
       </c>
       <c r="D192" s="2">
+        <v>47</v>
+      </c>
+      <c r="E192" s="2">
+        <v>54457</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2">
         <v>34</v>
       </c>
-      <c r="E192" s="2">
+      <c r="H192" s="2">
         <v>49453</v>
       </c>
-      <c r="G192" s="2">
+      <c r="J192" s="2">
         <v>33</v>
       </c>
-      <c r="H192" s="2">
+      <c r="K192" s="2">
         <v>76412</v>
       </c>
-      <c r="J192" s="2">
+      <c r="M192" s="2">
         <v>51</v>
       </c>
-      <c r="K192" s="2">
+      <c r="N192" s="2">
         <v>165082</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-    </row>
-    <row r="194" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+    </row>
+    <row r="194" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-    </row>
-    <row r="195" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+    </row>
+    <row r="195" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P2:R2"/>
+  <mergeCells count="11">
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
